--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC457A1-69B0-4E68-8C3B-C97FD24084D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5231C8-732D-4F16-A0BF-2F94340CE4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="510" windowWidth="23385" windowHeight="14565" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="1140" yWindow="1095" windowWidth="23385" windowHeight="13140" activeTab="1" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2178,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7613A4E-FCDB-452F-B8FF-A8711454E448}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2380,11 +2380,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007765E8-C51A-4FC3-91B6-B2B23450DFD5}">
   <dimension ref="A1:CY20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5231C8-732D-4F16-A0BF-2F94340CE4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39E200-F78B-42A2-B620-EF48BC5F7FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1095" windowWidth="23385" windowHeight="13140" activeTab="1" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="2865" yWindow="1695" windowWidth="23595" windowHeight="13935" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="SIGMAR1" sheetId="6" r:id="rId3"/>
     <sheet name="Blarcamesine" sheetId="3" r:id="rId4"/>
-    <sheet name="ANAVEX3-71" sheetId="4" r:id="rId5"/>
-    <sheet name="ANAVEX1-41" sheetId="7" r:id="rId6"/>
-    <sheet name="ANAVEX1066" sheetId="5" r:id="rId7"/>
+    <sheet name="ANAVEX2-73-AD-004" sheetId="10" r:id="rId5"/>
+    <sheet name="ATTENTION-AD" sheetId="9" r:id="rId6"/>
+    <sheet name="Supplemental" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="211">
   <si>
     <t>Price</t>
   </si>
@@ -188,9 +188,6 @@
     <t>SIGMA-1 Receptor</t>
   </si>
   <si>
-    <t>SIGMACEPTOR</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -218,21 +215,9 @@
     <t>ANAVEX 2-73</t>
   </si>
   <si>
-    <t>AD, PD, Dementia, Rett Syndrome, Fragile X Syndrome, Infantile Spasms, Angelman Syndrome</t>
-  </si>
-  <si>
     <t>Regulatory</t>
   </si>
   <si>
-    <t>OLE, 96/144-week trial</t>
-  </si>
-  <si>
-    <t>once-daily oral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48-week double-blind </t>
-  </si>
-  <si>
     <t>50mg</t>
   </si>
   <si>
@@ -242,15 +227,9 @@
     <t>placebo</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>biomarker Abeta42 only significance</t>
-  </si>
-  <si>
     <t>FDA may consider approval with only one co-primary endpoint in Early stages 1 and 2 and early 3 with robust evidence</t>
   </si>
   <si>
@@ -263,20 +242,6 @@
     <t>Studies:</t>
   </si>
   <si>
-    <r>
-      <t>high Aβ42 predicts preserved cognition and a lower risk of progression to dementia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
     <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC9661329/</t>
   </si>
   <si>
@@ -286,27 +251,9 @@
     <t>BV/Share</t>
   </si>
   <si>
-    <t>Phase 2/3 Rett Syndrome "EXCELLENCE"</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Phase 2 OLE Study PD w/ Dementia "ANAVEX2-73-PDD-001"</t>
-  </si>
-  <si>
-    <t>Significance only at 48-week in ADAS-Cog but not in co-primary endpoint ADCS-ADL</t>
-  </si>
-  <si>
-    <t>Phase 2b/3 "ATTENTION-AD AD-004" n=508</t>
-  </si>
-  <si>
     <t>"For the primary analysis, the model assumed the missing data to be missing at random without imputation"</t>
   </si>
   <si>
-    <t>"Most enrolled partic- ipants would be characterized as early AD (Stage 3) [38] with base- line MMSE score 20–28, and the majority were on background ther- apy of cholinesterase inhibitors (ChEIs) and/or memantine to treat AD "</t>
-  </si>
-  <si>
     <t>Placebo</t>
   </si>
   <si>
@@ -319,33 +266,18 @@
     <t>Blarcamine 30mg</t>
   </si>
   <si>
-    <t>SIGMA-1 agonist</t>
-  </si>
-  <si>
-    <t>EMA filed</t>
-  </si>
-  <si>
     <t>Co-primary endpoint changed from ADAS-Cog13+ADCS-ADL to ADAS-Cog+CDR-SB</t>
   </si>
   <si>
     <t>ADCS-ADL failed blamed sensitivity of scale</t>
   </si>
   <si>
-    <t>Blarcamesine and placebo groups had 72 (75%) and 16 (57.2%) patient discontinuations in this early titration phase on or before Week 24, primarily due to TEAEs (Supplemental Table 2, Supplemental Figure 2). 40 (41.7%) blarcamesine patients and 5 (17.9%) placebo patients dropped out on or before the ﬁrst analysis visit (Week 12).</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/gene/10280</t>
-  </si>
-  <si>
     <t>SIGMAR1</t>
   </si>
   <si>
     <t>SIGMAR1 found to be involved in pain signaling</t>
   </si>
   <si>
-    <t>"This gene encodes a receptor protein that interacts with a variety of psychotomimetic drugs, including cocaine and amphetamines"</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -355,38 +287,422 @@
     <t>sigma non-opioid intracellular receptor 1</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s44161-021-00016-2</t>
-  </si>
-  <si>
     <t>https://www.nature.com/articles/s41467-022-28946-w</t>
   </si>
   <si>
     <t>https://www.nature.com/articles/s42003-025-07590-2</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/NE-100</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cutamesine</t>
-  </si>
-  <si>
     <t>local activation in the ACC specifically promotes depression-pain comorbidity While global SIGMAR1 activation may be neuroprotective in many contexts</t>
   </si>
   <si>
-    <t>IMPORTANT</t>
-  </si>
-  <si>
     <t>"mixed Sigma-1/Sigma-2 receptor ligand"</t>
   </si>
   <si>
-    <t>"SIGMAR1 agonism with M1 muscarinic receptor modulation"</t>
+    <t>"Most enrolled participants would be characterized as early AD (Stage 3) [38] with base- line MMSE score 20–28, and the majority were on background ther- apy of cholinesterase inhibitors (ChEIs) and/or memantine to treat AD "</t>
+  </si>
+  <si>
+    <t>Failed PE</t>
+  </si>
+  <si>
+    <t>blarcamesine 50mg vs. blarcamesine 30mg vs. placebo</t>
+  </si>
+  <si>
+    <t>Phase II "ANAVEX2-73-PDD-001" in PD w/ Dementia n=132 NCT:NCT04575259</t>
+  </si>
+  <si>
+    <t>Phase II/III "EXCELLENCE"in Rett Syndrome n=92 NCT:NCT04304482</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2274580725000810?via%3Dihub</t>
+  </si>
+  <si>
+    <t>30mg blarcamesine</t>
+  </si>
+  <si>
+    <t>50mg blarcamesine</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37166702/</t>
+  </si>
+  <si>
+    <t>Tipping point analysis non-plausibility</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/10543406.2022.2058525</t>
+  </si>
+  <si>
+    <t>https://phuse.s3.eu-central-1.amazonaws.com/Archive/2024/Connect/EU/Strasbourg/PAP_AS08.pdf</t>
+  </si>
+  <si>
+    <t>https://ww2.amstat.org/meetings/biop/2019/onlineprogram/ViewPresentation.cfm?file=301002.pdf</t>
+  </si>
+  <si>
+    <t>https://cdn.clinicaltrials.gov/large-docs/92/NCT03759392/SAP_001.pdf</t>
+  </si>
+  <si>
+    <t>ITT population discrepentcies:</t>
+  </si>
+  <si>
+    <t>Week 48</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2274580725000809</t>
+  </si>
+  <si>
+    <t>Marwan Noel Sabbagh a leading "Scientific Advisor" for ANAVEX and part of the Phase IIB/III trial:</t>
+  </si>
+  <si>
+    <t>CT First record</t>
+  </si>
+  <si>
+    <t>Study Start</t>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
+  <si>
+    <t>Interventions</t>
+  </si>
+  <si>
+    <t>Primary Endpoint</t>
+  </si>
+  <si>
+    <t>Secondary Endpoint</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>ATTENTION-AD</t>
+  </si>
+  <si>
+    <t>Ages 55-85</t>
+  </si>
+  <si>
+    <t>Phase IIB/III "" in Alzheimer's n=509 NCT:NCT03790709</t>
+  </si>
+  <si>
+    <t>Phase IIB/III OLE "ATTENTION-AD" in Alzheimer's n=300 NCT:NCT04314934</t>
+  </si>
+  <si>
+    <t>ANAVEX2-73-AD-004</t>
+  </si>
+  <si>
+    <t>IIB/III</t>
+  </si>
+  <si>
+    <t>Ages 60-85</t>
+  </si>
+  <si>
+    <t>NIA-AA diagnosis of MCI due to AD or early stage mild dementia due to AD</t>
+  </si>
+  <si>
+    <t>MMSE score between 20-28 inclusive</t>
+  </si>
+  <si>
+    <t>Free Recall score &lt;=17 or Total Recall score &lt;40 on the FCSRT</t>
+  </si>
+  <si>
+    <t>Sites</t>
+  </si>
+  <si>
+    <t>NCT</t>
+  </si>
+  <si>
+    <t>NCT03790709</t>
+  </si>
+  <si>
+    <t>Christopher U. Missling, Ph.D. -- CEO</t>
+  </si>
+  <si>
+    <t>54; 16 UK, 16 Australia, 11 Canada, 8 Germany, 3 Netherlands</t>
+  </si>
+  <si>
+    <t>Reduction in cognitive decline from basline using ADAS-Cog at 48 weeks</t>
+  </si>
+  <si>
+    <t>Reduction in cognitive decline from basline using ADCS-ADL at 48 weeks</t>
+  </si>
+  <si>
+    <t>CDR-SB</t>
+  </si>
+  <si>
+    <t>Number of participants w/ treatment-related AE assessed by CTCAE</t>
+  </si>
+  <si>
+    <t>S.S. in ADAS-Cog at week 48 but not 12-36; Failed to meet co-primary endpoint ADCS-ADL</t>
+  </si>
+  <si>
+    <t>EMA filed; not filed FDA yet</t>
+  </si>
+  <si>
+    <t>Other Endpoints</t>
+  </si>
+  <si>
+    <t>CSF (Abeta40, Abeta42, T-tau, P-tau, NFL, YKL-40, neurogranin, BACE1 concentration)</t>
+  </si>
+  <si>
+    <t>Blood (Abeta40, Abeta42, T-tau, P-tau, NFL, YKL-40, neurogranin, BACE1 concentration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in brain volume assesed by MRI </t>
+  </si>
+  <si>
+    <t>According to regulations 42 CFR 11.44 and 42 CFR 11.52 the SAP should be made public but they havent</t>
+  </si>
+  <si>
+    <t>Response to criticism:</t>
+  </si>
+  <si>
+    <t>Criticisim:</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2274580725000810</t>
+  </si>
+  <si>
+    <t>However there is no regulation saying you cannot make the SAP and protocol public</t>
+  </si>
+  <si>
+    <t>EMA does not require public disclosure of SAP however FDA does alongside protocols</t>
+  </si>
+  <si>
+    <t>"Preliminary data present previously were not final and are outside the scope of this publication"</t>
+  </si>
+  <si>
+    <t>Author response:</t>
+  </si>
+  <si>
+    <t>AD, PD, Rett Syndrome</t>
+  </si>
+  <si>
+    <t>Author declined to post SAP or protocol</t>
+  </si>
+  <si>
+    <t>Without access to the SAP the discrepentcies could or could not be valid we wouldn’t know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It also goes against standard practice </t>
+  </si>
+  <si>
+    <t>mITT 462 vs 508 randomized (high missing data unclear due to no transparency)</t>
+  </si>
+  <si>
+    <t>High missingness reduces reliability</t>
+  </si>
+  <si>
+    <t>Tipping point analysis only done for ADAS-Cog</t>
+  </si>
+  <si>
+    <t>high AE, large missing data mITT 462 vs ITT 508; imputed to be MAR</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2274580724006083?via%3Dihub</t>
+  </si>
+  <si>
+    <t>TEAE discont.</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/regulatory-information/search-fda-guidance-documents/early-alzheimers-disease-developing-drugs-treatment</t>
+  </si>
+  <si>
+    <t>cutamesine</t>
+  </si>
+  <si>
+    <t>igmesine</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>MR309</t>
+  </si>
+  <si>
+    <t>FTC-146</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31282954/</t>
+  </si>
+  <si>
+    <t>Edonerpic Maleate</t>
+  </si>
+  <si>
+    <t>Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Alzheimer's</t>
+  </si>
+  <si>
+    <t>https://bpspubs.onlinelibrary.wiley.com/doi/10.1111/bcp.14952</t>
+  </si>
+  <si>
+    <t>Discontinued due to lack of bioavaliability and efficacy thresholds</t>
+  </si>
+  <si>
+    <t>https://www.ahajournals.org/doi/10.1161/STROKEAHA.114.005835</t>
+  </si>
+  <si>
+    <t>https://movementdisorders.onlinelibrary.wiley.com/doi/10.1002/mds.28064</t>
+  </si>
+  <si>
+    <t>Stroke, PD</t>
+  </si>
+  <si>
+    <t>PD: "No significant longitudinal changes were identified in PD patients at follow-up compared with baseline" Stroke: "no significant effects on functional end points"</t>
+  </si>
+  <si>
+    <t>Phase 3 failed PE high AE</t>
+  </si>
+  <si>
+    <t>https://ehdn.org/wp-content/uploads/2021/10/F42.pdf</t>
+  </si>
+  <si>
+    <t>SIGMAR1 agonists less effective at higher doses?</t>
+  </si>
+  <si>
+    <t>Major Depresssive Disorder</t>
+  </si>
+  <si>
+    <t>"A radioconjugate composed of the selective sigma-1 receptor (S1R) ligand"</t>
+  </si>
+  <si>
+    <t>dextromethorphan (AVP-786)</t>
+  </si>
+  <si>
+    <t>Failed Phase 3 "Triad-1 &amp; Triad-2"</t>
+  </si>
+  <si>
+    <t>https://www.clinicaltrials.gov/study/NCT02442765</t>
+  </si>
+  <si>
+    <t>high affinity SIGMAR1 agonist</t>
+  </si>
+  <si>
+    <t>Failed Phase 2 p=0.81</t>
+  </si>
+  <si>
+    <t>Summary:</t>
+  </si>
+  <si>
+    <t>Failed in AD, AD agitation, Stroke, PD, MDD; Neuropathic Pain not conclusive</t>
+  </si>
+  <si>
+    <t>AD agitation</t>
+  </si>
+  <si>
+    <t>Other SIGMAR1 Drugs</t>
+  </si>
+  <si>
+    <t>p=0.026</t>
+  </si>
+  <si>
+    <t>p=0.021</t>
+  </si>
+  <si>
+    <t>p=0.354</t>
+  </si>
+  <si>
+    <t>p=0.527</t>
+  </si>
+  <si>
+    <t>p=0.020</t>
+  </si>
+  <si>
+    <t>p=0.045</t>
+  </si>
+  <si>
+    <t>p=0.024</t>
+  </si>
+  <si>
+    <t>p=0.008</t>
+  </si>
+  <si>
+    <t>ADAS-COG (higher is worse)</t>
+  </si>
+  <si>
+    <t>ADCS-ADL (lower is worse)</t>
+  </si>
+  <si>
+    <t>CDR-SB (higher is worse)</t>
+  </si>
+  <si>
+    <t>CGI-I (higher is worse)</t>
+  </si>
+  <si>
+    <t>biomarker Abeta42/40 ratio S.S. p=0.048; other biomarkers not S.S. (p-Tau 181;231, and Nf-L plasma levels)</t>
+  </si>
+  <si>
+    <t>Lecanemab was approved with primary endpoint of CDR-SB but had very strong data and early significance</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>51; 23 Australia, 5 Canada, 8 Germany, 3 Netherlands, 12 UK</t>
+  </si>
+  <si>
+    <t>Previous completion in 48-week trial</t>
+  </si>
+  <si>
+    <t>Number of participants w/ treatment-related AE as assessed by CTCAE at 96 weeks</t>
+  </si>
+  <si>
+    <t>ADAS-Cog at 96 weeks</t>
+  </si>
+  <si>
+    <t>ADCS-ADL at 96 weeks</t>
+  </si>
+  <si>
+    <t>NCT04314934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGMA-1 agonist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipping point analysis assumed MNAR and claimed "robustness" for a worsening of 1.9 points which is plausible since it is still performing better than placebo </t>
+  </si>
+  <si>
+    <t>Author declined to post SAP or protocol for statistical analysis and assumptions</t>
+  </si>
+  <si>
+    <t>higher AB1-42 is longer and tends to aggregate and form plaques worsening AD</t>
+  </si>
+  <si>
+    <t>SIGMAR1 not proven to be effective in many cases</t>
+  </si>
+  <si>
+    <t>drug only filed in EMA? And not filed in the biggest market USA</t>
+  </si>
+  <si>
+    <t>AVXL claims "current regulatory guidance from the FDA suggests that a sole cognitive endpoint is sufficient for demonstrating significance in early AD study populations"</t>
+  </si>
+  <si>
+    <t>Topline data of ANAVEX3-71 Phase 2 for Schizophrenia expected 2025</t>
+  </si>
+  <si>
+    <t>Blarcamesine EMA results expected 2H25</t>
+  </si>
+  <si>
+    <t>NO USA sites, most in Australia???</t>
+  </si>
+  <si>
+    <t>"5 months until database lock even cassava didn’t need that"</t>
+  </si>
+  <si>
+    <t>if 300m shares issued</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -420,12 +736,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,32 +775,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,12 +840,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -566,35 +876,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,15 +996,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303609</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>298673</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>152960</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316532</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>111288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -704,7 +1027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="303609" y="6798469"/>
+          <a:off x="297656" y="9709547"/>
           <a:ext cx="7287642" cy="4010585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -716,16 +1039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>303609</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>672703</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>17860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>162838</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>111976</xdr:rowOff>
+      <xdr:colOff>252134</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>106025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -748,52 +1071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="303609" y="11322844"/>
+          <a:off x="976312" y="12763501"/>
           <a:ext cx="6544588" cy="409632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>303609</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>72507</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>95622</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86078B04-CC24-16AC-79A0-4B7CD0461C5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="303609" y="11941969"/>
-          <a:ext cx="7668695" cy="2667372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -806,13 +1085,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -854,13 +1133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -901,14 +1180,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:colOff>268231</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>103135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336362</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>378033</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>130630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -925,15 +1204,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="250372" y="15664264"/>
-          <a:ext cx="6797033" cy="3783066"/>
+          <a:off x="268231" y="14134651"/>
+          <a:ext cx="6771349" cy="3724385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,13 +1225,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1042,13 +1321,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1090,13 +1369,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1138,13 +1417,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1186,13 +1465,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1234,13 +1513,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1282,13 +1561,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1330,13 +1609,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1378,13 +1657,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1426,13 +1705,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1474,13 +1753,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1522,13 +1801,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1570,13 +1849,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:colOff>391715</xdr:colOff>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1618,13 +1897,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1666,14 +1945,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1714,14 +1993,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>301091</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>149068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>95590</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>95589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1737,15 +2016,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301091" y="19629054"/>
-          <a:ext cx="6448052" cy="3538807"/>
+          <a:off x="301091" y="19324084"/>
+          <a:ext cx="6422368" cy="3482678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,58 +2036,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>284761</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>327725</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>121854</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E6806D-7ACC-8914-09C7-5DEF464C5976}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6995804" y="19665042"/>
-          <a:ext cx="6748564" cy="4672083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>593271</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:colOff>509929</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>148391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523879</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>99053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1825,6 +2060,431 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7713210" y="14179907"/>
+          <a:ext cx="6086137" cy="3647552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7444</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>41673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223835</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>136923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1782A21E-655D-06C2-9971-41A98FAB37C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="311053" y="30628829"/>
+          <a:ext cx="4752673" cy="3309938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19706</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195934</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="file">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABF57AA-457C-F50A-2A14-5AFCA92D686B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="354723" y="8401707"/>
+          <a:ext cx="5063539" cy="1497724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23679</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118764</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="file">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DFD59F-51F9-84FF-2A79-FDD18A5B6086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="360717" y="3460428"/>
+          <a:ext cx="4352028" cy="4832639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335016</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36391</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>120150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D6FDD6-8D68-56D2-DD7E-4A5AB6BFBE2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="335016" y="16245053"/>
+          <a:ext cx="4312789" cy="1302562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2473</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479535</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="file">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D584254-613A-A7DE-B859-D2408CE5E208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="337490" y="19582087"/>
+          <a:ext cx="4142545" cy="1806464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4806</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>65645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137948</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>46132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E124A8-B2C2-A7FF-B995-2B8C67D43626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="339823" y="22584059"/>
+          <a:ext cx="4409539" cy="5564107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>102396</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>36722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>25245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980B403C-0716-F4CF-544F-D5F35B5A8E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="437413" y="28302981"/>
+          <a:ext cx="4265966" cy="4422574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5474</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>78829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137256</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>113471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD826C6F-0ADC-7287-3349-08FED57DF56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
@@ -1832,12 +2492,73 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7304314" y="15709520"/>
-          <a:ext cx="6112330" cy="3706233"/>
+          <a:off x="340491" y="32779139"/>
+          <a:ext cx="4408179" cy="5289815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>223344</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319169</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>147062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259646A3-68D7-46DA-A3A4-3D3C07A990E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="223344" y="32135380"/>
+          <a:ext cx="7150894" cy="5474493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2176,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7613A4E-FCDB-452F-B8FF-A8711454E448}">
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2193,6 +2914,7 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -2218,11 +2940,12 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>9.24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2231,15 +2954,13 @@
       <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -2251,40 +2972,38 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="33" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="G4" s="8"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>788.83727999999996</v>
+        <v>939.09199999999998</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
@@ -2293,9 +3012,7 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -2308,24 +3025,22 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="21">
+        <v>78</v>
+      </c>
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="G6" s="11"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -2342,33 +3057,43 @@
       </c>
       <c r="K7" s="2">
         <f>K4+K6-K5</f>
-        <v>673.06628000000001</v>
+        <v>823.32100000000003</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="F8" s="4"/>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K8" s="1">
         <f>K5/K3</f>
         <v>1.3560769338893315</v>
       </c>
-      <c r="L8" s="1">
-        <f>K8*2</f>
-        <v>2.712153867778663</v>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="Blarcamesine!A1" display="ANAVEX 2-73 (Blarcamesine)" xr:uid="{E1A20B33-E6B5-475F-B772-6322DF36FBD2}"/>
-    <hyperlink ref="B4" location="AF710B!A1" display="ANAVEX 3-71 (AF710B)" xr:uid="{5B696B3F-CBE7-4E8B-A3B0-57B54284F7F2}"/>
-    <hyperlink ref="B6" location="ANAVEX1066!A1" display="ANAVEX 1066" xr:uid="{70470361-44EA-498B-940D-21C0B8C4F317}"/>
     <hyperlink ref="E3" location="SIGMAR1!A1" display="SIGMA-1 Receptor" xr:uid="{D68FCD09-2952-4EA5-A5E2-B83F88177566}"/>
-    <hyperlink ref="B5" location="'ANAVEX1-41'!A1" display="ANAVEX 1-41" xr:uid="{486772F3-0AE2-4E5D-BC9E-EBEC5BA5063D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2380,11 +3105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007765E8-C51A-4FC3-91B6-B2B23450DFD5}">
   <dimension ref="A1:CY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3120,8 +3845,8 @@
         <v>24</v>
       </c>
       <c r="M18" s="2">
-        <f>NPV(M17,F13:XFD13)+Main!K5-Main!K6+Blarcamesine!D40</f>
-        <v>932.10340526743425</v>
+        <f>NPV(M17,F13:XFD13)+Main!K5-Main!K6+Blarcamesine!D54</f>
+        <v>774.2503511708303</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -3130,7 +3855,7 @@
       </c>
       <c r="M19" s="1">
         <f>M18/Main!K3</f>
-        <v>10.91813949851748</v>
+        <v>9.0691368501479435</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -3142,7 +3867,7 @@
       </c>
       <c r="M20" s="4">
         <f>M19/Main!K2-1</f>
-        <v>0.18161682884388308</v>
+        <v>-0.17553301362291418</v>
       </c>
     </row>
   </sheetData>
@@ -3156,137 +3881,266 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407ADA6D-3660-4286-832E-E0AFABF67ECE}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="A24:B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>98</v>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" tooltip="https://link.springer.com/chapter/10.1007/164_2017_8" xr:uid="{908679FD-F137-4CE4-B11B-ED5832B74FC8}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{E3455CA4-1BB2-48FF-A8BE-EE6BC790D76D}"/>
+    <hyperlink ref="B15" r:id="rId1" tooltip="https://link.springer.com/chapter/10.1007/164_2017_8" xr:uid="{908679FD-F137-4CE4-B11B-ED5832B74FC8}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{E3455CA4-1BB2-48FF-A8BE-EE6BC790D76D}"/>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BFB01A54-03EB-45AD-B81A-4B9884E950F3}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{537C62E8-A33B-452F-B341-B20D35812B70}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{A75EFDBD-BD0A-4B0D-8FDD-7EEB593AC22D}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{93C25C51-39B9-4C01-8868-36CDAA6666FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA50582-DC4D-4F23-97CC-A8C90BE99A2E}">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3294,7 +4148,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,728 +4156,1202 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>54</v>
+      <c r="C8" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>55</v>
+      <c r="C11" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>84</v>
+      <c r="C12" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20">
-        <v>65</v>
-      </c>
-      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>5.5819999999999999</v>
+      </c>
+      <c r="G24" s="32">
+        <v>-7.56</v>
+      </c>
+      <c r="J24">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="M24">
+        <v>4.883</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="32">
+        <v>3.65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="32">
+        <v>-6.702</v>
+      </c>
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="K25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="32">
+        <v>-6.94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32">
+        <v>1.29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="I27" s="32"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>67</v>
+      </c>
+      <c r="E32">
         <v>168</v>
       </c>
-      <c r="E20" s="4">
-        <f>C20/D20</f>
-        <v>0.38690476190476192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
+      <c r="F32" s="4">
+        <f>D32/E32</f>
+        <v>0.39880952380952384</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
         <v>41</v>
       </c>
-      <c r="D21">
+      <c r="E33">
         <v>167</v>
       </c>
-      <c r="E21" s="4">
-        <f>C21/D21</f>
+      <c r="F33" s="4">
+        <f>D33/E33</f>
         <v>0.24550898203592814</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
         <v>168</v>
       </c>
-      <c r="E22" s="4">
-        <f>C22/D22</f>
-        <v>7.7380952380952384E-2</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C33">
+      <c r="F34" s="4">
+        <f>D34/E34</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C40" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C41" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C44" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D47">
         <v>2025</v>
       </c>
-      <c r="D33">
-        <f>C33+1</f>
+      <c r="E47">
+        <f>D47+1</f>
         <v>2026</v>
       </c>
-      <c r="E33">
-        <f t="shared" ref="E33:T33" si="0">D33+1</f>
+      <c r="F47">
+        <f t="shared" ref="F47:U47" si="0">E47+1</f>
         <v>2027</v>
       </c>
-      <c r="F33">
+      <c r="G47">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="G33">
+      <c r="H47">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="H33">
+      <c r="I47">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="I33">
+      <c r="J47">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="J33">
+      <c r="K47">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="K33">
+      <c r="L47">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="L33">
+      <c r="M47">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="M33">
+      <c r="N47">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="N33">
+      <c r="O47">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="O33">
+      <c r="P47">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="P33">
+      <c r="Q47">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="Q33">
+      <c r="R47">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="R33">
+      <c r="S47">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="S33">
+      <c r="T47">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="T33">
+      <c r="U47">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="2">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="2">
         <v>2000</v>
       </c>
-      <c r="D34" s="2">
-        <f>C34*1.05</f>
+      <c r="E48" s="2">
+        <f>D48*1.05</f>
         <v>2100</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:T34" si="1">D34*1.05</f>
+      <c r="F48" s="2">
+        <f t="shared" ref="F48:U48" si="1">E48*1.05</f>
         <v>2205</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G48" s="2">
         <f t="shared" si="1"/>
         <v>2315.25</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H48" s="2">
         <f t="shared" si="1"/>
         <v>2431.0125000000003</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I48" s="2">
         <f t="shared" si="1"/>
         <v>2552.5631250000006</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J48" s="2">
         <f t="shared" si="1"/>
         <v>2680.1912812500009</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K48" s="2">
         <f t="shared" si="1"/>
         <v>2814.2008453125009</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L48" s="2">
         <f t="shared" si="1"/>
         <v>2954.9108875781262</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M48" s="2">
         <f t="shared" si="1"/>
         <v>3102.6564319570325</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N48" s="2">
         <f t="shared" si="1"/>
         <v>3257.7892535548845</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O48" s="2">
         <f t="shared" si="1"/>
         <v>3420.6787162326286</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P48" s="2">
         <f t="shared" si="1"/>
         <v>3591.7126520442603</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q48" s="2">
         <f t="shared" si="1"/>
         <v>3771.2982846464733</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="R48" s="2">
         <f t="shared" si="1"/>
         <v>3959.863198878797</v>
       </c>
-      <c r="R34" s="2">
+      <c r="S48" s="2">
         <f t="shared" si="1"/>
         <v>4157.8563588227371</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T48" s="2">
         <f t="shared" si="1"/>
         <v>4365.7491767638739</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U48" s="2">
         <f t="shared" si="1"/>
         <v>4584.0366356020677</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2">
+        <f>D48</f>
+        <v>2000</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ref="E49:U49" si="2">E48</f>
+        <v>2100</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>2205</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="2"/>
+        <v>2315.25</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="2"/>
+        <v>2431.0125000000003</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="2"/>
+        <v>2552.5631250000006</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="2"/>
+        <v>2680.1912812500009</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="2"/>
+        <v>2814.2008453125009</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="2"/>
+        <v>2954.9108875781262</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>3102.6564319570325</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>3257.7892535548845</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="2"/>
+        <v>3420.6787162326286</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="2"/>
+        <v>3591.7126520442603</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="2"/>
+        <v>3771.2982846464733</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="2"/>
+        <v>3959.863198878797</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="2"/>
+        <v>4157.8563588227371</v>
+      </c>
+      <c r="T49" s="2">
+        <f t="shared" si="2"/>
+        <v>4365.7491767638739</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" si="2"/>
+        <v>4584.0366356020677</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2">
+        <v>32</v>
+      </c>
+      <c r="F50" s="2">
+        <v>32</v>
+      </c>
+      <c r="G50" s="2">
+        <v>32</v>
+      </c>
+      <c r="H50" s="2">
+        <v>32</v>
+      </c>
+      <c r="I50" s="2">
+        <v>32</v>
+      </c>
+      <c r="J50" s="2">
+        <v>32</v>
+      </c>
+      <c r="K50" s="2">
+        <v>32</v>
+      </c>
+      <c r="L50" s="2">
+        <v>32</v>
+      </c>
+      <c r="M50" s="2">
+        <v>32</v>
+      </c>
+      <c r="N50" s="2">
+        <v>32</v>
+      </c>
+      <c r="O50" s="2">
+        <v>32</v>
+      </c>
+      <c r="P50" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>32</v>
+      </c>
+      <c r="R50" s="2">
+        <v>32</v>
+      </c>
+      <c r="S50" s="2">
+        <v>32</v>
+      </c>
+      <c r="T50" s="2">
+        <v>32</v>
+      </c>
+      <c r="U50" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" ref="E51:U51" si="3">E50*E49</f>
+        <v>67200</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="3"/>
+        <v>70560</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="3"/>
+        <v>74088</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="3"/>
+        <v>77792.400000000009</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="3"/>
+        <v>81682.020000000019</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="3"/>
+        <v>85766.121000000028</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="3"/>
+        <v>90054.427050000028</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="3"/>
+        <v>94557.148402500039</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="3"/>
+        <v>99285.00582262504</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="3"/>
+        <v>104249.2561137563</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="3"/>
+        <v>109461.71891944412</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="3"/>
+        <v>114934.80486541633</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="3"/>
+        <v>120681.54510868715</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="3"/>
+        <v>126715.6223641215</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="3"/>
+        <v>133051.40348232759</v>
+      </c>
+      <c r="T51" s="2">
+        <f t="shared" si="3"/>
+        <v>139703.97365644397</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" si="3"/>
+        <v>146689.17233926617</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2">
+        <f>NPV(D53,D51:U51)/1000</f>
+        <v>789.26527048301978</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C62" s="22"/>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E87" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="2">
-        <f>C34*1.2</f>
-        <v>2400</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:T35" si="2">D34*1.2</f>
-        <v>2520</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="2"/>
-        <v>2646</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="2"/>
-        <v>2778.2999999999997</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="2"/>
-        <v>2917.2150000000001</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="2"/>
-        <v>3063.0757500000004</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="2"/>
-        <v>3216.2295375000008</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="2"/>
-        <v>3377.0410143750009</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="2"/>
-        <v>3545.8930650937514</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="2"/>
-        <v>3723.1877183484389</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="2"/>
-        <v>3909.3471042658612</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="2"/>
-        <v>4104.8144594791538</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="2"/>
-        <v>4310.0551824531121</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="2"/>
-        <v>4525.5579415757675</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="2"/>
-        <v>4751.835838654556</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="2"/>
-        <v>4989.4276305872845</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="2"/>
-        <v>5238.8990121166489</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" si="2"/>
-        <v>5500.8439627224807</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>32</v>
-      </c>
-      <c r="D36" s="2">
-        <v>32</v>
-      </c>
-      <c r="E36" s="2">
-        <v>32</v>
-      </c>
-      <c r="F36" s="2">
-        <v>32</v>
-      </c>
-      <c r="G36" s="2">
-        <v>32</v>
-      </c>
-      <c r="H36" s="2">
-        <v>32</v>
-      </c>
-      <c r="I36" s="2">
-        <v>32</v>
-      </c>
-      <c r="J36" s="2">
-        <v>32</v>
-      </c>
-      <c r="K36" s="2">
-        <v>32</v>
-      </c>
-      <c r="L36" s="2">
-        <v>32</v>
-      </c>
-      <c r="M36" s="2">
-        <v>32</v>
-      </c>
-      <c r="N36" s="2">
-        <v>32</v>
-      </c>
-      <c r="O36" s="2">
-        <v>32</v>
-      </c>
-      <c r="P36" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>32</v>
-      </c>
-      <c r="R36" s="2">
-        <v>32</v>
-      </c>
-      <c r="S36" s="2">
-        <v>32</v>
-      </c>
-      <c r="T36" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" ref="D37:T37" si="3">D36*D35</f>
-        <v>80640</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="3"/>
-        <v>84672</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="3"/>
-        <v>88905.599999999991</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>93350.88</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="3"/>
-        <v>98018.424000000014</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="3"/>
-        <v>102919.34520000003</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="3"/>
-        <v>108065.31246000003</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="3"/>
-        <v>113468.57808300004</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>119142.00698715005</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="3"/>
-        <v>125099.10733650756</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="3"/>
-        <v>131354.06270333292</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="3"/>
-        <v>137921.76583849959</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="3"/>
-        <v>144817.85413042456</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="3"/>
-        <v>152058.74683694579</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="3"/>
-        <v>159661.6841787931</v>
-      </c>
-      <c r="S37" s="2">
-        <f t="shared" si="3"/>
-        <v>167644.76838773277</v>
-      </c>
-      <c r="T37" s="2">
-        <f t="shared" si="3"/>
-        <v>176027.00680711938</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="2">
-        <f>NPV(D39,C37:T37)/1000</f>
-        <v>947.11832457962373</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E74" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K74" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="K87" s="23" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{507DDEA7-932D-4872-8D48-17F26FD11820}"/>
-    <hyperlink ref="B44" r:id="rId1" xr:uid="{742903D1-1F8C-41C6-B35C-3394E968EAAA}"/>
+    <hyperlink ref="B57" r:id="rId1" xr:uid="{742903D1-1F8C-41C6-B35C-3394E968EAAA}"/>
+    <hyperlink ref="C40" r:id="rId2" xr:uid="{761CC2DD-41E1-442C-BEBB-9C601648719D}"/>
+    <hyperlink ref="B59" r:id="rId3" xr:uid="{26A4184F-9010-4D5B-A394-0E08A6A96BFE}"/>
+    <hyperlink ref="B58" r:id="rId4" xr:uid="{0192896A-414F-41D2-A543-236A79B30313}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109960B7-7301-4425-B40F-55ADDC51D355}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11E7C0-A819-4B90-9147-611A69F54962}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="C4" s="26">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="26">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7167E1E6-B4AA-4C6E-B192-52BC74C63302}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A3A338AC-1754-4C3F-B2ED-FC5AE1155B74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFDD43F-E944-4444-B48B-82623BFF33DC}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC17A629-C70F-4C12-A535-8EEC4DFE5F0F}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="26">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{015FEDFF-2C76-4AD2-9320-E3BC81F84AED}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{429A3FC5-F475-4B8F-B7A7-11479A38889E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9466766-F510-4B5D-841E-53B1D7427668}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06430607-0784-43C7-B856-99EB5636C523}">
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C5764308-F8DF-4F86-A850-AB67DAC42A1E}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6FB31C8A-3385-4AC8-9CF1-43BACE682D63}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{7DAC69A2-E6FB-4E8D-98D9-32656E778B17}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{84F7155D-DE65-43F2-AD29-811608FCCBD1}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{7589E6CF-D112-4626-BDCD-22B4484E7E4B}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{FBDE0662-368D-48D3-9046-89712148CFBE}"/>
+    <hyperlink ref="B189" r:id="rId5" xr:uid="{21447383-8AFE-43A5-BA6C-23895D981C82}"/>
+    <hyperlink ref="B63" r:id="rId6" xr:uid="{5F30CA00-9B2C-49C1-B973-CB142652194C}"/>
+    <hyperlink ref="B67" r:id="rId7" xr:uid="{56F2460C-89E4-4FB2-8811-5C224B2E411A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39E200-F78B-42A2-B620-EF48BC5F7FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98316C01-6FA6-40BC-9FF6-1353AA20BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1695" windowWidth="23595" windowHeight="13935" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="14550" windowHeight="15585" firstSheet="1" activeTab="5" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="SIGMAR1" sheetId="6" r:id="rId3"/>
-    <sheet name="Blarcamesine" sheetId="3" r:id="rId4"/>
-    <sheet name="ANAVEX2-73-AD-004" sheetId="10" r:id="rId5"/>
-    <sheet name="ATTENTION-AD" sheetId="9" r:id="rId6"/>
-    <sheet name="Supplemental" sheetId="8" r:id="rId7"/>
+    <sheet name="Literature" sheetId="13" r:id="rId3"/>
+    <sheet name="IP" sheetId="14" r:id="rId4"/>
+    <sheet name="SIGMAR1" sheetId="6" r:id="rId5"/>
+    <sheet name="blarcamesine" sheetId="3" r:id="rId6"/>
+    <sheet name="ANAVEX2-73-AD-004" sheetId="10" r:id="rId7"/>
+    <sheet name="ATTENTION-AD" sheetId="9" r:id="rId8"/>
+    <sheet name="Supplemental" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="301">
   <si>
     <t>Price</t>
   </si>
@@ -239,15 +241,6 @@
     <t>Treated</t>
   </si>
   <si>
-    <t>Studies:</t>
-  </si>
-  <si>
-    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC9661329/</t>
-  </si>
-  <si>
-    <t>https://www.thelancet.com/journals/eclinm/article/PIIS2589-5370(21)00268-6/fulltext</t>
-  </si>
-  <si>
     <t>BV/Share</t>
   </si>
   <si>
@@ -314,9 +307,6 @@
     <t>Phase II/III "EXCELLENCE"in Rett Syndrome n=92 NCT:NCT04304482</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2274580725000810?via%3Dihub</t>
-  </si>
-  <si>
     <t>30mg blarcamesine</t>
   </si>
   <si>
@@ -497,9 +487,6 @@
     <t>high AE, large missing data mITT 462 vs ITT 508; imputed to be MAR</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2274580724006083?via%3Dihub</t>
-  </si>
-  <si>
     <t>TEAE discont.</t>
   </si>
   <si>
@@ -524,18 +511,9 @@
     <t>FTC-146</t>
   </si>
   <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/31282954/</t>
-  </si>
-  <si>
-    <t>Edonerpic Maleate</t>
-  </si>
-  <si>
     <t>Neuropathic Pain</t>
   </si>
   <si>
-    <t>Alzheimer's</t>
-  </si>
-  <si>
     <t>https://bpspubs.onlinelibrary.wiley.com/doi/10.1111/bcp.14952</t>
   </si>
   <si>
@@ -566,9 +544,6 @@
     <t>Major Depresssive Disorder</t>
   </si>
   <si>
-    <t>"A radioconjugate composed of the selective sigma-1 receptor (S1R) ligand"</t>
-  </si>
-  <si>
     <t>dextromethorphan (AVP-786)</t>
   </si>
   <si>
@@ -578,18 +553,9 @@
     <t>https://www.clinicaltrials.gov/study/NCT02442765</t>
   </si>
   <si>
-    <t>high affinity SIGMAR1 agonist</t>
-  </si>
-  <si>
-    <t>Failed Phase 2 p=0.81</t>
-  </si>
-  <si>
     <t>Summary:</t>
   </si>
   <si>
-    <t>Failed in AD, AD agitation, Stroke, PD, MDD; Neuropathic Pain not conclusive</t>
-  </si>
-  <si>
     <t>AD agitation</t>
   </si>
   <si>
@@ -659,18 +625,12 @@
     <t>NCT04314934</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGMA-1 agonist </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tipping point analysis assumed MNAR and claimed "robustness" for a worsening of 1.9 points which is plausible since it is still performing better than placebo </t>
   </si>
   <si>
     <t>Author declined to post SAP or protocol for statistical analysis and assumptions</t>
   </si>
   <si>
-    <t>higher AB1-42 is longer and tends to aggregate and form plaques worsening AD</t>
-  </si>
-  <si>
     <t>SIGMAR1 not proven to be effective in many cases</t>
   </si>
   <si>
@@ -693,6 +653,318 @@
   </si>
   <si>
     <t>if 300m shares issued</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Mean Change</t>
+  </si>
+  <si>
+    <t>Mean Change Listed</t>
+  </si>
+  <si>
+    <t>ADAS-Cog (higher is worse)</t>
+  </si>
+  <si>
+    <t>p=0.033</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>n=168</t>
+  </si>
+  <si>
+    <t>n=336</t>
+  </si>
+  <si>
+    <t>upaired t test</t>
+  </si>
+  <si>
+    <t>p=0.19</t>
+  </si>
+  <si>
+    <t>&lt;- calculator 0.0513</t>
+  </si>
+  <si>
+    <t>(if approval)</t>
+  </si>
+  <si>
+    <t>the company says that lecanemab and doenamab were approved with failed co-primary but they were DENIED in EMA</t>
+  </si>
+  <si>
+    <t>timing of S.S at only 48 week and placebo performing better than blarcamesine suggests random statistical noise, post-hoc data mining, or survivorship bias (high dropout rates ~35%)</t>
+  </si>
+  <si>
+    <t>open label bias</t>
+  </si>
+  <si>
+    <t>EMA will likely scrutinize the methodologies</t>
+  </si>
+  <si>
+    <t>https://excidium.co.uk/anavex</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16914835/</t>
+  </si>
+  <si>
+    <t>Marwan Sabbagh in previous work (2006) states: "These findings suggest that the ADAS-Cog and MMSE reflect different aspects of the underlying brain changes observed in AD. The ADAS-Cog was more specific to gray matter integrity whereas the MMSE reflected a more global reduction in both gray and white matter"</t>
+  </si>
+  <si>
+    <t>However phase III blarcamesine showed no change in white matter and only significance in grey matter</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18726544/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18798705/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26386305/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/0269881110379286</t>
+  </si>
+  <si>
+    <t>Phase IIa in Alzheimer's n= NCT:NCT02244541</t>
+  </si>
+  <si>
+    <t>Phase IIa OLE in Alzheimer's n= NCT:NCT02756858</t>
+  </si>
+  <si>
+    <t>https://alz-journals.onlinelibrary.wiley.com/doi/10.1002/trc2.12013</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Incentive</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Accrued Liabilities</t>
+  </si>
+  <si>
+    <t>Deferred Grant Income</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>"All statistical analyses were performed by outside consultancy companies"</t>
+  </si>
+  <si>
+    <t>"Under the multiplicity control rule, a trial is successful in meeting the co-primary endpoints if the significance of each endpoint is P &lt; 0.05, or if the significance of only one co-primary endpoint is P &lt; 0.025. If only one primary endpoint is significant at an α level of 0.025, then the secondary endpoint will be evaluated at the same level of 0.025. The trial was successful, the differences in the least-squares mean (LSM) change from baseline to 48 weeks between the ANAVEX®2-73 and placebo groups for ADAS-Cog13 was significant at a level of P &lt; 0.025 and for CDR-SB was significant at a level of P &lt; 0.025, in the patients with early Alzheimer’s disease"</t>
+  </si>
+  <si>
+    <t>sigma-1 agonist</t>
+  </si>
+  <si>
+    <t>SIGMAR1 activation and M1 muscarinic allosteric modulation</t>
+  </si>
+  <si>
+    <t>ANAVEX 1037</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>Prostate, pancreatic cancer</t>
+  </si>
+  <si>
+    <t>high affinity sigma-1 moderate affinity sigma-2</t>
+  </si>
+  <si>
+    <t>Dr. Marwan N. Sabbagh, M.D -- Chairman of Scientific Advisory Board</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Physiochemistry</t>
+  </si>
+  <si>
+    <t>blarcamesine, 1-(2,2-diphenyloxolan-3-yl)-N,N-dimethylmethanamine</t>
+  </si>
+  <si>
+    <t>281MW, logP 3.5, 0 HBD, 2 HBA, 4 RB</t>
+  </si>
+  <si>
+    <t>35: Villard V, Espallergues J, Keller E, Vamvakides A, Maurice T. Anti-amnesic and neuroprotective potentials of the mixed muscarinic receptor/sigma 1 (σ1) ligand ANAVEX2-73, a novel aminotetrahydrofuran derivative. J Psychopharmacol. 2011 Aug;25(8):1101-17. doi: 10.1177/0269881110379286. Epub 2010 Sep 9. PMID: 20829307</t>
+  </si>
+  <si>
+    <t>34: Lahmy V, Meunier J, Malmström S, Naert G, Givalois L, Kim SH, Villard V, Vamvakides A, Maurice T. Blockade of Tau hyperphosphorylation and Aβ₁₋₄₂ generation by the aminotetrahydrofuran derivative ANAVEX2-73, a mixed muscarinic and σ₁ receptor agonist, in a nontransgenic mouse model of Alzheimer's disease. Neuropsychopharmacology. 2013 Aug;38(9):1706-23. doi: 10.1038/npp.2013.70. Epub 2013 Mar 14. PMID: 23493042; PMCID: PMC3717544.</t>
+  </si>
+  <si>
+    <t>33: Lahmy V, Long R, Morin D, Villard V, Maurice T. Mitochondrial protection by the mixed muscarinic/σ1 ligand ANAVEX2-73, a tetrahydrofuran derivative, in Aβ25-35 peptide-injected mice, a nontransgenic Alzheimer's disease model. Front Cell Neurosci. 2015 Jan 20;8:463. doi: 10.3389/fncel.2014.00463. PMID: 25653589; PMCID: PMC4299448.</t>
+  </si>
+  <si>
+    <t>32: Mason VL. Alzheimer's Association International Conference on Alzheimer's Disease 2015 (AAIC 2015) (July 18-23, 2015 - Washington, D.C., USA). Drugs Today (Barc). 2015 Jul;51(7):447-52. doi: 10.1358/dot.2015.51.7.2375989. PMID: 26261847</t>
+  </si>
+  <si>
+    <t>31: Maurice T. Protection by sigma-1 receptor agonists is synergic with donepezil, but not with memantine, in a mouse model of amyloid-induced memory impairments. Behav Brain Res. 2016 Jan 1;296:270-278. doi: 10.1016/j.bbr.2015.09.020. Epub 2015 Sep 16. PMID: 26386305.</t>
+  </si>
+  <si>
+    <t>30: Goguadze N, Zhuravliova E, Morin D, Mikeladze D, Maurice T. Sigma-1 Receptor Agonists Induce Oxidative Stress in Mitochondria and Enhance Complex I Activity in Physiological Condition but Protect Against Pathological Oxidative Stress. Neurotox Res. 2019 Jan;35(1):1-18. doi: 10.1007/s12640-017-9838-2. Epub 2017 Nov 10. PMID: 29127580.</t>
+  </si>
+  <si>
+    <t>29: Christ MG, Huesmann H, Nagel H, Kern A, Behl C. Sigma-1 Receptor Activation Induces Autophagy and Increases Proteostasis Capacity In Vitro and In Vivo. Cells. 2019 Mar 2;8(3):211. doi: 10.3390/cells8030211. PMID: 30832324; PMCID: PMC6468724.</t>
+  </si>
+  <si>
+    <t>27: Lisak RP, Nedelkoska L, Benjamins JA. Sigma-1 receptor agonists as potential protective therapies in multiple sclerosis. J Neuroimmunol. 2020 Feb 21;342:577188. doi: 10.1016/j.jneuroim.2020.577188. Epub ahead of print. PMID: 32179326</t>
+  </si>
+  <si>
+    <t>26: Hampel H, Williams C, Etcheto A, Goodsaid F, Parmentier F, Sallantin J, Kaufmann WE, Missling CU, Afshar M. A precision medicine framework using artificial intelligence for the identification and confirmation of genomic biomarkers of response to an Alzheimer's disease therapy: Analysis of the blarcamesine (ANAVEX2-73) Phase 2a clinical study. Alzheimers Dement (N Y). 2020 Apr 19;6(1):e12013. doi: 10.1002/trc2.12013. PMID: 32318621; PMCID: PMC7167374.</t>
+  </si>
+  <si>
+    <t>25: Ye N, Qin W, Tian S, Xu Q, Wold EA, Zhou J, Zhen XC. Small Molecules Selectively Targeting Sigma-1 Receptor for the Treatment of Neurological Diseases. J Med Chem. 2020 Dec 24;63(24):15187-15217. doi: 10.1021/acs.jmedchem.0c01192. Epub 2020 Oct 28. PMID: 33111525.</t>
+  </si>
+  <si>
+    <t>24: Singh J, Lanzarini E, Santosh P. Autonomic Characteristics of Sudden Unexpected Death in Epilepsy in Children-A Systematic Review of Studies and Their Relevance to the Management of Epilepsy in Rett Syndrome. Front Neurol. 2021 Feb 5;11:632510. doi: 10.3389/fneur.2020.632510. PMID: 33613425; PMCID: PMC7892970.</t>
+  </si>
+  <si>
+    <t>23: Sun C, Armstrong MJ. Treatment of Parkinson's Disease with Cognitive Impairment: Current Approaches and Future Directions. Behav Sci (Basel). 2021 Apr 17;11(4):54. doi: 10.3390/bs11040054. PMID: 33920698; PMCID: PMC8073727.</t>
+  </si>
+  <si>
+    <t>22: Prasanth MI, Malar DS, Tencomnao T, Brimson JM. The emerging role of the sigma-1 receptor in autophagy: hand-in-hand targets for the treatment of Alzheimer's. Expert Opin Ther Targets. 2021 May;25(5):401-414. doi: 10.1080/14728222.2021.1939681. Epub 2021 Jun 17. PMID: 34110944.</t>
+  </si>
+  <si>
+    <t>21: Reyes ST, Deacon RMJ, Guo SG, Altimiras FJ, Castillo JB, van der Wildt B, Morales AP, Park JH, Klamer D, Rosenberg J, Oberman LM, Rebowe N, Sprouse J, Missling CU, McCurdy CR, Cogram P, Kaufmann WE, Chin FT. Effects of the sigma-1 receptor agonist blarcamesine in a murine model of fragile X syndrome: neurobehavioral phenotypes and receptor occupancy. Sci Rep. 2021 Aug 25;11(1):17150. doi: 10.1038/s41598-021-94079-7. PMID: 34433831; PMCID: PMC8387417.</t>
+  </si>
+  <si>
+    <t>20: Cogram P, Deacon RMJ, Klamer D, Rebowe N, Sprouse J, Reyes ST, Missling CU, Kaufmann WE. Brain cell signaling abnormalities are detected in blood in a murine model of Fragile X syndrome and corrected by Sigma-1 receptor agonist Blarcamesine. Am J Med Genet A. 2022 Aug;188(8):2497-2500. doi: 10.1002/ajmg.a.62853. Epub 2022 Jun 4. PMID: 35661397.</t>
+  </si>
+  <si>
+    <t>19: Man VH, Lin D, He X, Gao J, Wang J. Joint Computational/Cell-Based Approach Alzheimers Dis. 2022;89(1):107-119. doi: 10.3233/JAD-220450. PMID: 35848028; PMCID: PMC10276768.</t>
+  </si>
+  <si>
+    <t>18: Singh J, Ameenpur S, Ahmed R, Basheer S, Chishti S, Lawrence R, Fiori F, Santosh P. An Observational Study of Heart Rate Variability Using Wearable Sensors Provides a Target for Therapeutic Monitoring of Autonomic Dysregulation in Patients with Rett Syndrome. Biomedicines. 2022 Jul 13;10(7):1684. doi: 10.3390/biomedicines10071684. PMID: 35884989; PMCID: PMC9312701.</t>
+  </si>
+  <si>
+    <t>17: Singh J, Fiori F, Law ML, Ahmed R, Ameenpur S, Basheer S, Chishti S, Lawrence R, Mastroianni M, Mosaddegh A, Santosh P. Development and Psychometric Properties of the Multi-System Profile of Symptoms Scale in Patients with Rett Syndrome. J Clin Med. 2022 Aug 30;11(17):5094. doi: 10.3390/jcm11175094. PMID: 36079020; PMCID: PMC9457440.</t>
+  </si>
+  <si>
+    <t>16: Malar DS, Thitilertdecha P, Ruckvongacheep KS, Brimson S, Tencomnao T, Brimson JM. Targeting Sigma Receptors for the Treatment of Neurodegenerative and Neurodevelopmental Disorders. CNS Drugs. 2023 May;37(5):399-440. doi: 10.1007/s40263-023-01007-6. Epub 2023 May 11. PMID: 37166702; PMCID: PMC10173947.</t>
+  </si>
+  <si>
+    <t>15: Singh J, Goodman-Vincent E, Santosh P. Evidence Synthesis of Gene Therapy and Gene Editing from Different Disorders-Implications for Individuals with Rett Syndrome: A Systematic Review. Int J Mol Sci. 2023 May 19;24(10):9023. doi: 10.3390/ijms24109023. PMID: 37240368; PMCID: PMC10219055.</t>
+  </si>
+  <si>
+    <t>14: Ette EI, Fadiran EO, Missling C, Hammond E. The new big is small: Leveraging knowledge from small trials for rare disease drug development: Blarcamesine for Rett syndrome. Br J Clin Pharmacol. 2025 Apr;91(4):1049-1063. doi: 10.1111/bcp.15843. Epub 2023 Aug 3. PMID: 37429704; PMCID: PMC11992655.</t>
+  </si>
+  <si>
+    <t>13: Degirmenci Y, Angelopoulou E, Georgakopoulou VE, Bougea A. Cognitive Impairment in Parkinson's Disease: An Updated Overview Focusing on Emerging Pharmaceutical Treatment Approaches. Medicina (Kaunas). 2023 Oct 1;59(10):1756. doi: 10.3390/medicina59101756. PMID: 37893474; PMCID: PMC10608778.</t>
+  </si>
+  <si>
+    <t>11: Qian B, Li TY, Zheng ZX, Zhang HY, Xu WQ, Mo SM, Cui JJ, Chen WJ, Lin YC, Lin ZN. The involvement of SigmaR1&lt;sup&gt;K142&lt;/sup&gt; degradation mediated by ERAD in neural senescence linked with CdCl&lt;sub&gt;2&lt;/sub&gt; exposure. J Hazard Mater. 2024 Jul 5;472:134466. doi: 10.1016/j.jhazmat.2024.134466. Epub 2024 Apr 28. PMID: 38718507</t>
+  </si>
+  <si>
+    <t>10: Mercer RCC, Le NTT, Fraser DG, Houser MCQ, Beeler AB, Harris DA. Sigma Receptor Ligands Are Potent Antiprion Compounds that Act Independently of Sigma Receptor Binding. ACS Chem Neurosci. 2024 Jun 5;15(11):2265-2282. doi: 10.1021/acschemneuro.4c00095. Epub 2024 May 14. PMID: 38743607; PMCID: PMC12172621.</t>
+  </si>
+  <si>
+    <t>9: Chen W, Han L, Yang R, Wang H, Yao S, Deng H, Liu S, Zhou Y, Shen XL. Central role of Sigma-1 receptor in ochratoxin A-induced ferroptosis. Arch Toxicol. 2024 Oct;98(10):3323-3336. doi: 10.1007/s00204-024-03805-3. Epub 2024 Jun 19. PMID: 38896176</t>
+  </si>
+  <si>
+    <t>8: Singh J, Wilkins G, Goodman-Vincent E, Chishti S, Bonilla Guerrero R, McFadden L, Zahavi Z, Santosh P. Co-Occurring Methylenetetrahydrofolate Reductase (&lt;i&gt;MTHFR&lt;/i&gt;) rs1801133 and rs1801131 Genotypes as Associative Genetic Modifiers of Clinical Severity in Rett Syndrome. Brain Sci. 2024 Jun 21;14(7):624. doi: 10.3390/brainsci14070624. PMID: 39061365; PMCID: PMC11275218.</t>
+  </si>
+  <si>
+    <t>7: Singh J, Wilkins G, Goodman-Vincent E, Chishti S, Bonilla Guerrero R, Fiori F, Ameenpur S, McFadden L, Zahavi Z, Santosh P. Using Precision Medicine to Disentangle Genotype-Phenotype Relationships in Twins with Rett Syndrome: A Case Report. Curr Issues Mol Biol. 2024 Aug 2;46(8):8424-8440. doi: 10.3390/cimb46080497. PMID: 39194714; PMCID: PMC11352978.</t>
+  </si>
+  <si>
+    <t>6: Percy AK, Ananth A, Neul JL. Rett Syndrome: The Emerging Landscape of Treatment Strategies. CNS Drugs. 2024 Nov;38(11):851-867. doi: 10.1007/s40263-024-01106-y. Epub 2024 Sep 9. PMID: 39251501; PMCID: PMC11486803.</t>
+  </si>
+  <si>
+    <t>5: Downs J, Pichard DC, Kaufmann WE, Horrigan JP, Raspa M, Townend G, Marsh ED, Leonard H, Motil K, Dietz AC, Garg N, Ananth A, Byiers B, Peters S, Beatty C, Symons F, Jacobs A, Youakim J, Suter B, Santosh P, Neul JL, Benke TA. International workshop: what is needed to ensure outcome measures for Rett syndrome are fit-for-purpose for clinical trials? June 7, 2023, Nashville, USA. Trials. 2024 Dec 21;25(1):845. doi: 10.1186/s13063-024-08678-6. PMID: 39709426; PMCID: PMC11663341.</t>
+  </si>
+  <si>
+    <t>4: Singh J, Santosh P. The Newborn Screening Programme Revisited: An Expert Opinion on the Challenges of Rett Syndrome. Genes (Basel). 2024 Dec 5;15(12):1570. doi: 10.3390/genes15121570. PMID: 39766837; PMCID: PMC11675257.</t>
+  </si>
+  <si>
+    <t>3: Macfarlane S, Grimmer T, Teo K, O'Brien TJ, Woodward M, Grunfeld J, Mander A, Brodtmann A, Brew BJ, Morris P, Short C, Kurrle S, Lai R, Bharadwaj S, Drysdale P, Sturm J, Lewis SJG, Barton D, Kalafatis C, Sharif S, Perry R, Mannering N,  Asher A, Connell S, Lynch J, Rutgers SM, Dautzenberg PL, Prins N, Oschmann P, Frölich L, Tacik P, Peters O, Wiltfang J, Henri-Bhargava A, Smith E, Pasternak S, Frank A, Chertkow H, Ingram J, Hsiung GR, Brittain R, Tartaglia C, Cohen S, Villa LM, Gordon E, Jubault T, Guizard N, Tucker A, Kaufmann WE, Jin K, Chezem WR, Missling CU, Sabbagh MN. Blarcamesine for the treatment of Early Alzheimer's Disease: Results from the ANAVEX2-73-AD-004 Phase IIB/III trial. J Prev Alzheimers Dis. 2025 Jan;12(1):100016. doi: 10.1016/j.tjpad.2024.100016. Epub 2025 Jan 1. PMID: 39800452; PMCID: PMC12184016.</t>
+  </si>
+  <si>
+    <t>2: Brodkin J. Concerns about Anavex's clinical trial of Blarcamesine. J Prev Alzheimers Dis. 2025 May;12(5):100137. doi: 10.1016/j.tjpad.2025.100137. Epub 2025 Apr 3. PMID: 40190003; PMCID: PMC12183999.</t>
+  </si>
+  <si>
+    <t>1: Singh J, Santosh P. Molecular Insights into Neurological Regression with a Focus on Rett Syndrome-A Narrative Review. Int J Mol Sci. 2025 Jun 3;26(11):5361. doi: 10.3390/ijms26115361. PMID: 40508170; PMCID: PMC12154281.</t>
+  </si>
+  <si>
+    <t>n=154</t>
+  </si>
+  <si>
+    <t>n=144</t>
+  </si>
+  <si>
+    <t>n=164</t>
+  </si>
+  <si>
+    <t>Placebo baseline</t>
+  </si>
+  <si>
+    <t>Placebo change</t>
+  </si>
+  <si>
+    <t>30mg baseline</t>
+  </si>
+  <si>
+    <t>50mg baseline</t>
+  </si>
+  <si>
+    <t>"A radioconjugate composed of the selective sigma-1 receptor (S1R) ligand"; "10.1038/s41598-021-94079-7" Ki 2.5x10^-3 nM sigma-1 receptor vs IC50 860nM for blarcamesine</t>
+  </si>
+  <si>
+    <t>SIGMA-1 agonist, Ki 860nM? as per Reyes ST et al. 2021</t>
+  </si>
+  <si>
+    <t>Search terms=ANAVEX2-73, blarcamesine</t>
+  </si>
+  <si>
+    <t>Search terms=</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Nevada?</t>
+  </si>
+  <si>
+    <t>Failed in AD agitation, Stroke, PD, MDD,; Neuropathic Pain, AD not conclusive</t>
   </si>
 </sst>
 </file>
@@ -702,7 +974,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -735,6 +1007,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC8C3BC"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -865,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -878,9 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,14 +1192,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -940,15 +1236,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16852</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -964,8 +1260,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3333750" y="0"/>
-          <a:ext cx="9525" cy="7086600"/>
+          <a:off x="4535365" y="0"/>
+          <a:ext cx="9525" cy="7055094"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -997,13 +1293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>17859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>316532</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>111288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1041,13 +1337,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>672703</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>17860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>252134</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>106025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1085,13 +1381,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1133,13 +1429,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1181,13 +1477,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>268231</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>103135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>378033</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>130630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1225,14 +1521,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1321,13 +1617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1369,13 +1665,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1417,13 +1713,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1465,13 +1761,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1513,13 +1809,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1561,13 +1857,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1609,13 +1905,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1657,13 +1953,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1705,13 +2001,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1753,13 +2049,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1801,13 +2097,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1849,13 +2145,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>391715</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1897,14 +2193,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1945,13 +2241,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1993,13 +2289,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>301091</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>149068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>95589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2037,13 +2333,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>509929</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>148391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>523879</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>99053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2079,16 +2375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7444</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>41673</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>271214</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>56327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>223835</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>136923</xdr:rowOff>
+      <xdr:colOff>395654</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>140874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2118,8 +2414,854 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="311053" y="30628829"/>
-          <a:ext cx="4752673" cy="3309938"/>
+          <a:off x="271214" y="23055539"/>
+          <a:ext cx="4974863" cy="3469586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544D5D95-24F3-E99C-BB82-25BBDBEC6E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6067425" y="22612350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461597</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>45050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>125068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B9753E-5978-5171-10F2-042CE87DBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5312020" y="22238300"/>
+          <a:ext cx="7033845" cy="3948633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>227134</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>12012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>48114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Details are in the caption following the image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC6B584-C5C7-8C70-2B53-3093DB735111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="227134" y="27041031"/>
+          <a:ext cx="5839558" cy="3582333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E12610-7593-FA5D-D5CC-A20D47D0E777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1085850" y="31518225"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D17D60-83BE-8FE3-9386-455636BB3A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1085850" y="31032450"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F88A5C-EBB1-63FB-6D44-7A8FC03571C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="31032450"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF6033E-9C40-DC46-7932-68AB0F803B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="31032450"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250581</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>63745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>153573</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>12459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C771DD0A-3870-06AF-68F3-002CBF2746BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250581" y="30800187"/>
+          <a:ext cx="8402223" cy="5268060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>258354</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>84349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECB1B02-98F6-BF18-0EE1-4FCD1B54E053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307731" y="36216981"/>
+          <a:ext cx="8449854" cy="5887272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>534618</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>40031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F488C219-19FB-12E4-8741-C274FF82E85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307731" y="42181096"/>
+          <a:ext cx="8726118" cy="8583223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220249</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>59082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4949F5C3-2D37-52DD-B0B9-28B92E5D55C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307731" y="50885481"/>
+          <a:ext cx="8411749" cy="8602275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344091</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>5117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF6BA90-9C8E-4537-6675-0B827F4A082E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307731" y="59589865"/>
+          <a:ext cx="8535591" cy="5163271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391947</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>72264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1C6F46-13AA-1B15-4D52-0702A643F2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307731" y="64909212"/>
+          <a:ext cx="4934639" cy="3296110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>379228</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>14972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801BC7B0-E61C-208E-0806-0968736401C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5436577" y="65055750"/>
+          <a:ext cx="8306959" cy="2286319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>80598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537480</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>152055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F6B8E0-00C2-A6AB-D4C5-6A684F55C461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="359020" y="68697233"/>
+          <a:ext cx="6245152" cy="4423649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>131886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>359408</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>120217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2A9F35-9648-3054-D9D3-BC6731037C68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6909289" y="67458982"/>
+          <a:ext cx="8030696" cy="5630061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347416</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>76040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDE62D7-D4E8-9452-9D9A-47E81A46B8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307731" y="72968827"/>
+          <a:ext cx="6106377" cy="4105848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>460130</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271096</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F1B6C5-E75C-6338-C92A-9FE49A8DDD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5917955" y="0"/>
+          <a:ext cx="2858966" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2563,6 +3705,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333171</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>36633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447263</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>150476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D22D064-4245-6F58-5DE6-0B3ABD2BBC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333171" y="37110864"/>
+          <a:ext cx="3491804" cy="3337689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2897,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7613A4E-FCDB-452F-B8FF-A8711454E448}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2908,56 +4094,56 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>11</v>
+        <v>13.4</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
@@ -2972,17 +4158,17 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="35" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2993,21 +4179,21 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>939.09199999999998</v>
+        <v>1143.9848</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3025,22 +4211,22 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="8"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -3052,42 +4238,74 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>K4+K6-K5</f>
-        <v>823.32100000000003</v>
+        <v>1028.2138</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="D8" s="35"/>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1">
         <f>K5/K3</f>
         <v>1.3560769338893315</v>
       </c>
-      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>207</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="J9" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K9" s="1">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>117</v>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="22" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3103,771 +4321,1142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007765E8-C51A-4FC3-91B6-B2B23450DFD5}">
-  <dimension ref="A1:CY20"/>
+  <dimension ref="A1:DE27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="3">
         <v>2023</v>
       </c>
-      <c r="D2" s="3">
-        <f>C2+1</f>
+      <c r="J2" s="3">
+        <f>I2+1</f>
         <v>2024</v>
       </c>
-      <c r="E2" s="3">
-        <f t="shared" ref="E2:J2" si="0">D2+1</f>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:O2" si="0">J2+1</f>
         <v>2025</v>
       </c>
-      <c r="F2" s="3">
+      <c r="L2" s="3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="G2" s="3">
+      <c r="M2" s="3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="H2" s="3">
+      <c r="N2" s="3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="I2" s="3">
+      <c r="O2" s="3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="J2" s="3">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="3" spans="1:103" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:109" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <f>C3-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:F5" si="1">D3-D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G3-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:O5" si="2">I3-I4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="2">
         <v>12.04</v>
       </c>
-      <c r="D6" s="2">
+      <c r="J6" s="2">
         <v>11.04</v>
       </c>
-      <c r="F6" s="2">
-        <f>D6*1.04</f>
+      <c r="K6" s="2">
+        <f>I6*1.04</f>
+        <v>12.521599999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <f>J6*1.04</f>
         <v>11.4816</v>
       </c>
-      <c r="G6" s="2">
-        <f>F6*1.04</f>
+      <c r="M6" s="2">
+        <f>L6*1.04</f>
         <v>11.940864000000001</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:J6" si="1">G6*1.04</f>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:O6" si="3">M6*1.04</f>
         <v>12.418498560000002</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
+      <c r="O6" s="2">
+        <f t="shared" si="3"/>
         <v>12.915238502400001</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="1"/>
-        <v>13.431848042496002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2">
+        <v>9.73</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="I7" s="2">
         <v>43.7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="J7" s="2">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="4">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:J8" si="2">SUM(C6:C7)</f>
+        <f t="shared" ref="C8:F8" si="4">SUM(C6:C7)</f>
+        <v>12.63</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8" si="5">SUM(G6:G7)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:O8" si="6">SUM(I6:I7)</f>
         <v>55.74</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="2"/>
+      <c r="J8" s="2">
+        <f t="shared" si="6"/>
         <v>52.839999999999996</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
+      <c r="K8" s="2">
+        <f t="shared" si="6"/>
+        <v>12.521599999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
         <v>11.4816</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
         <v>11.940864000000001</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
         <v>12.418498560000002</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
         <v>12.915238502400001</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="2"/>
-        <v>13.431848042496002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2">
         <f>C5-C8</f>
+        <v>-12.63</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:F9" si="7">D5-D8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f>G5-G8</f>
+        <v>-12.5</v>
+      </c>
+      <c r="I9" s="2">
+        <f>I5-I8</f>
         <v>-55.74</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:J9" si="3">D5-D8</f>
+      <c r="J9" s="2">
+        <f t="shared" ref="J9:O9" si="8">J5-J8</f>
         <v>-52.839999999999996</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="3"/>
+      <c r="K9" s="2">
+        <f t="shared" si="8"/>
+        <v>-12.521599999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="8"/>
         <v>-11.4816</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
+      <c r="M9" s="2">
+        <f t="shared" si="8"/>
         <v>-11.940864000000001</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
+      <c r="N9" s="2">
+        <f t="shared" si="8"/>
         <v>-12.418498560000002</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="3"/>
+      <c r="O9" s="2">
+        <f t="shared" si="8"/>
         <v>-12.915238502400001</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="3"/>
-        <v>-13.431848042496002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="2">
+        <f>NPV(R8,L13:XFD13)+Main!K5-Main!K6+blarcamesine!D67</f>
+        <v>3562.0285628719562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="2">
         <v>6.52</v>
       </c>
-      <c r="D10" s="2">
+      <c r="J10" s="2">
         <v>7.32</v>
       </c>
-      <c r="F10" s="2">
-        <f>E17*$M$15</f>
+      <c r="K10" s="2">
+        <f>J17*$R$6</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="G10" s="2">
-        <f>F17*$M$15</f>
-        <v>2.136768</v>
-      </c>
-      <c r="H10" s="2">
-        <f>G17*$M$15</f>
-        <v>1.9406860800000001</v>
-      </c>
-      <c r="I10" s="2">
-        <f>H17*$M$15</f>
-        <v>1.7311298304000002</v>
-      </c>
-      <c r="J10" s="2">
-        <f>I17*$M$15</f>
-        <v>1.5074476569600002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="L10" s="2">
+        <f>K17*$R$6</f>
+        <v>2.1567743999999998</v>
+      </c>
+      <c r="M10" s="2">
+        <f>L17*$R$6</f>
+        <v>2.0075771903999997</v>
+      </c>
+      <c r="N10" s="2">
+        <f>M17*$R$6</f>
+        <v>1.8486446014464</v>
+      </c>
+      <c r="O10" s="2">
+        <f>N17*$R$6</f>
+        <v>1.6795269381095423</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="1">
+        <f>R9/Main!K3</f>
+        <v>41.723616207561683</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2">
         <f>C9+C10</f>
+        <v>-10.88</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:F11" si="9">D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G9+G10</f>
+        <v>-11.3</v>
+      </c>
+      <c r="I11" s="2">
+        <f>I9+I10</f>
         <v>-49.22</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:J11" si="4">D9+D10</f>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:O11" si="10">J9+J10</f>
         <v>-45.519999999999996</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="4"/>
-        <v>-9.1616</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="4"/>
-        <v>-9.8040960000000013</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="4"/>
-        <v>-10.477812480000001</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="4"/>
-        <v>-11.184108672000001</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="4"/>
-        <v>-11.924400385536002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="K11" s="2">
+        <f t="shared" si="10"/>
+        <v>-10.201599999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="10"/>
+        <v>-9.3248256000000005</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="10"/>
+        <v>-9.933286809600002</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="10"/>
+        <v>-10.569853958553601</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="10"/>
+        <v>-11.235711564290458</v>
+      </c>
+      <c r="R11" s="4">
+        <f>R10/Main!K2-1</f>
+        <v>2.113702702056842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f>K11*0.2</f>
+        <v>-2.0403199999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12:O12" si="11">L11*0.2</f>
+        <v>-1.8649651200000001</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="11"/>
+        <v>-1.9866573619200005</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.1139707917107202</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.2471423128580916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2">
         <f>C11-C12</f>
+        <v>-10.88</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:F13" si="12">D11-D12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f>G11-G12</f>
+        <v>-11.3</v>
+      </c>
+      <c r="I13" s="2">
+        <f>I11-I12</f>
         <v>-49.22</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:J13" si="5">D11-D12</f>
+      <c r="J13" s="2">
+        <f t="shared" ref="J13:O13" si="13">J11-J12</f>
         <v>-45.519999999999996</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="5"/>
-        <v>-9.1616</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="5"/>
-        <v>-9.8040960000000013</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="5"/>
-        <v>-10.477812480000001</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="5"/>
-        <v>-11.184108672000001</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
-        <v>-11.924400385536002</v>
-      </c>
       <c r="K13" s="2">
-        <f>J13*(1+$M$16)</f>
-        <v>-11.805156381680641</v>
+        <f t="shared" si="13"/>
+        <v>-8.1612799999999996</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13:BW13" si="6">K13*(1+$M$16)</f>
-        <v>-11.687104817863835</v>
+        <f t="shared" si="13"/>
+        <v>-7.4598604800000006</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="6"/>
-        <v>-11.570233769685197</v>
+        <f t="shared" si="13"/>
+        <v>-7.9466294476800012</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="6"/>
-        <v>-11.454531431988345</v>
+        <f t="shared" si="13"/>
+        <v>-8.4558831668428809</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="6"/>
-        <v>-11.339986117668461</v>
+        <f t="shared" si="13"/>
+        <v>-8.9885692514323665</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="6"/>
-        <v>-11.226586256491776</v>
+        <f t="shared" ref="P13:AU13" si="14">O13*(1+$R$7)</f>
+        <v>-8.8986835589180426</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="6"/>
-        <v>-11.114320393926858</v>
+        <f t="shared" si="14"/>
+        <v>-8.8096967233288623</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="6"/>
-        <v>-11.003177189987589</v>
+        <f t="shared" si="14"/>
+        <v>-8.7215997560955731</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.893145418087713</v>
+        <f t="shared" si="14"/>
+        <v>-8.6343837585346179</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.784213963906835</v>
+        <f t="shared" si="14"/>
+        <v>-8.5480399209492717</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.676371824267767</v>
+        <f t="shared" si="14"/>
+        <v>-8.4625595217397791</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.569608106025088</v>
+        <f t="shared" si="14"/>
+        <v>-8.3779339265223811</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.463912024964836</v>
+        <f t="shared" si="14"/>
+        <v>-8.2941545872571574</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.359272904715187</v>
+        <f t="shared" si="14"/>
+        <v>-8.2112130413845854</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.255680175668035</v>
+        <f t="shared" si="14"/>
+        <v>-8.1291009109707399</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.153123373911354</v>
+        <f t="shared" si="14"/>
+        <v>-8.047809901861033</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="6"/>
-        <v>-10.051592140172241</v>
+        <f t="shared" si="14"/>
+        <v>-7.9673318028424225</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.9510762187705186</v>
+        <f t="shared" si="14"/>
+        <v>-7.8876584848139979</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.8515654565828132</v>
+        <f t="shared" si="14"/>
+        <v>-7.808781899965858</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.7530498020169851</v>
+        <f t="shared" si="14"/>
+        <v>-7.7306940809661997</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.6555193039968152</v>
+        <f t="shared" si="14"/>
+        <v>-7.6533871401565374</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.5589641109568468</v>
+        <f t="shared" si="14"/>
+        <v>-7.5768532687549719</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.4633744698472775</v>
+        <f t="shared" si="14"/>
+        <v>-7.5010847360674218</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.368740725148804</v>
+        <f t="shared" si="14"/>
+        <v>-7.4260738887067479</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.2750533178973154</v>
+        <f t="shared" si="14"/>
+        <v>-7.3518131498196801</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.1823027847183418</v>
+        <f t="shared" si="14"/>
+        <v>-7.278295018321483</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="6"/>
-        <v>-9.0904797568711579</v>
+        <f t="shared" si="14"/>
+        <v>-7.2055120681382681</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.9995749593024463</v>
+        <f t="shared" si="14"/>
+        <v>-7.1334569474568852</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.9095792097094222</v>
+        <f t="shared" si="14"/>
+        <v>-7.0621223779823161</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.8204834176123281</v>
+        <f t="shared" si="14"/>
+        <v>-6.991501154202493</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.7322785834362051</v>
+        <f t="shared" si="14"/>
+        <v>-6.9215861426604679</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.6449557976018436</v>
+        <f t="shared" si="14"/>
+        <v>-6.8523702812338634</v>
       </c>
       <c r="AQ13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.5585062396258245</v>
+        <f t="shared" si="14"/>
+        <v>-6.7838465784215245</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.4729211772295656</v>
+        <f t="shared" si="14"/>
+        <v>-6.7160081126373088</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.3881919654572705</v>
+        <f t="shared" si="14"/>
+        <v>-6.6488480315109353</v>
       </c>
       <c r="AT13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.3043100458026977</v>
+        <f t="shared" si="14"/>
+        <v>-6.5823595511958262</v>
       </c>
       <c r="AU13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.2212669453446701</v>
+        <f t="shared" si="14"/>
+        <v>-6.5165359556838682</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.1390542758912225</v>
+        <f t="shared" ref="AV13:CA13" si="15">AU13*(1+$R$7)</f>
+        <v>-6.4513705961270293</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="6"/>
-        <v>-8.0576637331323102</v>
+        <f t="shared" si="15"/>
+        <v>-6.3868568901657587</v>
       </c>
       <c r="AX13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.9770870958009867</v>
+        <f t="shared" si="15"/>
+        <v>-6.3229883212641012</v>
       </c>
       <c r="AY13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.8973162248429771</v>
+        <f t="shared" si="15"/>
+        <v>-6.2597584380514597</v>
       </c>
       <c r="AZ13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.8183430625945469</v>
+        <f t="shared" si="15"/>
+        <v>-6.1971608536709448</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.7401596319686012</v>
+        <f t="shared" si="15"/>
+        <v>-6.1351892451342351</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.6627580356489151</v>
+        <f t="shared" si="15"/>
+        <v>-6.0738373526828928</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.5861304552924258</v>
+        <f t="shared" si="15"/>
+        <v>-6.0130989791560641</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.5102691507395019</v>
+        <f t="shared" si="15"/>
+        <v>-5.9529679893645033</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.4351664592321072</v>
+        <f t="shared" si="15"/>
+        <v>-5.8934383094708584</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.3608147946397864</v>
+        <f t="shared" si="15"/>
+        <v>-5.8345039263761498</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.287206646693388</v>
+        <f t="shared" si="15"/>
+        <v>-5.7761588871123886</v>
       </c>
       <c r="BH13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.2143345802264545</v>
+        <f t="shared" si="15"/>
+        <v>-5.718397298241265</v>
       </c>
       <c r="BI13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.1421912344241898</v>
+        <f t="shared" si="15"/>
+        <v>-5.6612133252588519</v>
       </c>
       <c r="BJ13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.0707693220799479</v>
+        <f t="shared" si="15"/>
+        <v>-5.6046011920062631</v>
       </c>
       <c r="BK13" s="2">
-        <f t="shared" si="6"/>
-        <v>-7.0000616288591484</v>
+        <f t="shared" si="15"/>
+        <v>-5.5485551800862005</v>
       </c>
       <c r="BL13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.9300610125705573</v>
+        <f t="shared" si="15"/>
+        <v>-5.4930696282853386</v>
       </c>
       <c r="BM13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.8607604024448516</v>
+        <f t="shared" si="15"/>
+        <v>-5.4381389320024853</v>
       </c>
       <c r="BN13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.7921527984204033</v>
+        <f t="shared" si="15"/>
+        <v>-5.38375754268246</v>
       </c>
       <c r="BO13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.7242312704361993</v>
+        <f t="shared" si="15"/>
+        <v>-5.329919967255635</v>
       </c>
       <c r="BP13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.6569889577318371</v>
+        <f t="shared" si="15"/>
+        <v>-5.2766207675830783</v>
       </c>
       <c r="BQ13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.5904190681545183</v>
+        <f t="shared" si="15"/>
+        <v>-5.2238545599072479</v>
       </c>
       <c r="BR13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.5245148774729733</v>
+        <f t="shared" si="15"/>
+        <v>-5.1716160143081753</v>
       </c>
       <c r="BS13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.4592697286982439</v>
+        <f t="shared" si="15"/>
+        <v>-5.1198998541650935</v>
       </c>
       <c r="BT13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.3946770314112618</v>
+        <f t="shared" si="15"/>
+        <v>-5.068700855623443</v>
       </c>
       <c r="BU13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.3307302610971492</v>
+        <f t="shared" si="15"/>
+        <v>-5.0180138470672082</v>
       </c>
       <c r="BV13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.2674229584861774</v>
+        <f t="shared" si="15"/>
+        <v>-4.9678337085965358</v>
       </c>
       <c r="BW13" s="2">
-        <f t="shared" si="6"/>
-        <v>-6.2047487289013157</v>
+        <f t="shared" si="15"/>
+        <v>-4.9181553715105704</v>
       </c>
       <c r="BX13" s="2">
-        <f t="shared" ref="BX13:CY13" si="7">BW13*(1+$M$16)</f>
-        <v>-6.1427012416123024</v>
+        <f t="shared" si="15"/>
+        <v>-4.8689738177954647</v>
       </c>
       <c r="BY13" s="2">
-        <f t="shared" si="7"/>
-        <v>-6.081274229196179</v>
+        <f t="shared" si="15"/>
+        <v>-4.8202840796175099</v>
       </c>
       <c r="BZ13" s="2">
-        <f t="shared" si="7"/>
-        <v>-6.0204614869042175</v>
+        <f t="shared" si="15"/>
+        <v>-4.7720812388213352</v>
       </c>
       <c r="CA13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.960256872035175</v>
+        <f t="shared" si="15"/>
+        <v>-4.7243604264331216</v>
       </c>
       <c r="CB13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.9006543033148233</v>
+        <f t="shared" ref="CB13:DE13" si="16">CA13*(1+$R$7)</f>
+        <v>-4.6771168221687907</v>
       </c>
       <c r="CC13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.841647760281675</v>
+        <f t="shared" si="16"/>
+        <v>-4.6303456539471028</v>
       </c>
       <c r="CD13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.7832312826788579</v>
+        <f t="shared" si="16"/>
+        <v>-4.5840421974076317</v>
       </c>
       <c r="CE13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.7253989698520691</v>
+        <f t="shared" si="16"/>
+        <v>-4.5382017754335555</v>
       </c>
       <c r="CF13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.6681449801535484</v>
+        <f t="shared" si="16"/>
+        <v>-4.4928197576792197</v>
       </c>
       <c r="CG13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.6114635303520126</v>
+        <f t="shared" si="16"/>
+        <v>-4.4478915601024278</v>
       </c>
       <c r="CH13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.5553488950484926</v>
+        <f t="shared" si="16"/>
+        <v>-4.4034126445014037</v>
       </c>
       <c r="CI13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.4997954060980074</v>
+        <f t="shared" si="16"/>
+        <v>-4.3593785180563893</v>
       </c>
       <c r="CJ13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.4447974520370277</v>
+        <f t="shared" si="16"/>
+        <v>-4.3157847328758256</v>
       </c>
       <c r="CK13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.3903494775166569</v>
+        <f t="shared" si="16"/>
+        <v>-4.2726268855470675</v>
       </c>
       <c r="CL13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.3364459827414903</v>
+        <f t="shared" si="16"/>
+        <v>-4.2299006166915971</v>
       </c>
       <c r="CM13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.2830815229140757</v>
+        <f t="shared" si="16"/>
+        <v>-4.1876016105246814</v>
       </c>
       <c r="CN13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.2302507076849345</v>
+        <f t="shared" si="16"/>
+        <v>-4.1457255944194342</v>
       </c>
       <c r="CO13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.1779482006080855</v>
+        <f t="shared" si="16"/>
+        <v>-4.1042683384752401</v>
       </c>
       <c r="CP13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.1261687186020044</v>
+        <f t="shared" si="16"/>
+        <v>-4.0632256550904877</v>
       </c>
       <c r="CQ13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.0749070314159841</v>
+        <f t="shared" si="16"/>
+        <v>-4.0225933985395832</v>
       </c>
       <c r="CR13" s="2">
-        <f t="shared" si="7"/>
-        <v>-5.0241579611018246</v>
+        <f t="shared" si="16"/>
+        <v>-3.9823674645541871</v>
       </c>
       <c r="CS13" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.9739163814908061</v>
+        <f t="shared" si="16"/>
+        <v>-3.9425437899086453</v>
       </c>
       <c r="CT13" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.924177217675898</v>
+        <f t="shared" si="16"/>
+        <v>-3.9031183520095589</v>
       </c>
       <c r="CU13" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.8749354454991387</v>
+        <f t="shared" si="16"/>
+        <v>-3.8640871684894633</v>
       </c>
       <c r="CV13" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.8261860910441472</v>
+        <f t="shared" si="16"/>
+        <v>-3.8254462968045688</v>
       </c>
       <c r="CW13" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.7779242301337055</v>
+        <f t="shared" si="16"/>
+        <v>-3.7871918338365229</v>
       </c>
       <c r="CX13" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.730144987832368</v>
+        <f t="shared" si="16"/>
+        <v>-3.7493199154981576</v>
       </c>
       <c r="CY13" s="2">
-        <f t="shared" si="7"/>
-        <v>-4.6828435379540441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>-3.7118267163431762</v>
+      </c>
+      <c r="CZ13" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.6747084491797444</v>
+      </c>
+      <c r="DA13" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.6379613646879467</v>
+      </c>
+      <c r="DB13" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.601581751041067</v>
+      </c>
+      <c r="DC13" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.5655659335306562</v>
+      </c>
+      <c r="DD13" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.5299102741953496</v>
+      </c>
+      <c r="DE13" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.4946111714533963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="e">
-        <f>C13/C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="L16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="4">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I15"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C17" s="2">
+        <f>C18-C26</f>
+        <v>132.19999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:F17" si="17">D18-D26</f>
+        <v>0</v>
+      </c>
       <c r="E17" s="2">
-        <f>E18-E20</f>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f>G18-G26</f>
         <v>116</v>
       </c>
-      <c r="F17" s="2">
-        <f>E17+F13</f>
-        <v>106.83840000000001</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" ref="G17:J17" si="8">F17+G13</f>
-        <v>97.034304000000006</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="8"/>
-        <v>86.556491520000009</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="8"/>
-        <v>75.372382848000001</v>
-      </c>
       <c r="J17" s="2">
-        <f t="shared" si="8"/>
-        <v>63.447982462463997</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+        <f>J18-J26</f>
+        <v>116</v>
+      </c>
+      <c r="K17" s="2">
+        <f>J17+K13</f>
+        <v>107.83872</v>
+      </c>
+      <c r="L17" s="2">
+        <f>K17+L13</f>
+        <v>100.37885951999999</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ref="M17:O17" si="18">L17+M13</f>
+        <v>92.432230072319996</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="18"/>
+        <v>83.976346905477115</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="18"/>
+        <v>74.987777654044748</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="C18" s="2">
+        <f>132.2</f>
+        <v>132.19999999999999</v>
+      </c>
+      <c r="G18" s="2">
         <v>116</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="2">
-        <f>NPV(M17,F13:XFD13)+Main!K5-Main!K6+Blarcamesine!D54</f>
-        <v>774.2503511708303</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="1">
-        <f>M18/Main!K3</f>
-        <v>9.0691368501479435</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J18" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="2">
+        <f>SUM(C18:C20)</f>
+        <v>135.57999999999998</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:F21" si="19">SUM(D18:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f>SUM(G18:G20)</f>
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="4">
-        <f>M19/Main!K2-1</f>
-        <v>-0.17553301362291418</v>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="2">
+        <f>SUM(C23:C26)</f>
+        <v>15.239999999999998</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:F27" si="20">SUM(D23:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SUM(G23:G26)</f>
+        <v>17.38</v>
       </c>
     </row>
   </sheetData>
@@ -3880,11 +5469,503 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407ADA6D-3660-4286-832E-E0AFABF67ECE}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2143176-ED9F-48BB-829E-6310A8502A04}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{127D6958-AF59-49AD-8259-248DF02AA6BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66327CA3-E58D-4FF3-8B47-41B755D3BE55}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="A24:B24"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f t="shared" ref="B6:B41" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8F71ED2B-118D-42B1-979A-6BE742942C0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407ADA6D-3660-4286-832E-E0AFABF67ECE}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3897,7 +5978,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3906,212 +5987,193 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+      <c r="D22" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" tooltip="https://link.springer.com/chapter/10.1007/164_2017_8" xr:uid="{908679FD-F137-4CE4-B11B-ED5832B74FC8}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{E3455CA4-1BB2-48FF-A8BE-EE6BC790D76D}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{908679FD-F137-4CE4-B11B-ED5832B74FC8}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{E3455CA4-1BB2-48FF-A8BE-EE6BC790D76D}"/>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BFB01A54-03EB-45AD-B81A-4B9884E950F3}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{537C62E8-A33B-452F-B341-B20D35812B70}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{A75EFDBD-BD0A-4B0D-8FDD-7EEB593AC22D}"/>
-    <hyperlink ref="B19" r:id="rId5" xr:uid="{93C25C51-39B9-4C01-8868-36CDAA6666FE}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{537C62E8-A33B-452F-B341-B20D35812B70}"/>
+    <hyperlink ref="B15" r:id="rId4" xr:uid="{A75EFDBD-BD0A-4B0D-8FDD-7EEB593AC22D}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{93C25C51-39B9-4C01-8868-36CDAA6666FE}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{774CDFC4-8ABC-4DC8-BFB9-15E69DD27F20}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{A15B22D9-F4B3-489C-8E8A-F310CE667BC2}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{2B91592D-BEAD-42D0-85CC-8520953ED12A}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{FCD5D540-E5E7-4A90-AF91-843C27195409}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA50582-DC4D-4F23-97CC-A8C90BE99A2E}">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4123,7 +6185,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4140,7 +6202,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4148,7 +6210,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4156,729 +6218,841 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>68</v>
+      <c r="C11" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>69</v>
+      <c r="C14" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D26" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27">
+        <v>30.4</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28">
+        <v>28.4</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29">
+        <v>28.9</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31">
+        <v>5.5819999999999999</v>
+      </c>
+      <c r="G31" s="30">
+        <v>-7.56</v>
+      </c>
+      <c r="J31">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="M31">
+        <v>4.883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="1">
+        <f>(-0.228--3.639)/(2*1.96)</f>
+        <v>0.87015306122448965</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="30">
+        <v>3.65</v>
+      </c>
+      <c r="E32" s="30">
+        <f>D32-D31</f>
+        <v>-1.9319999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="30">
+        <v>-6.702</v>
+      </c>
+      <c r="H32" s="30">
+        <f>G32-G31</f>
+        <v>0.85799999999999965</v>
+      </c>
+      <c r="I32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="K32" s="30">
+        <f>J32-J31</f>
+        <v>-0.49600000000000022</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="N32" s="30">
+        <f>M32-M31</f>
+        <v>-0.24899999999999967</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(-0.319--3.979)/(2*1.96)</f>
+        <v>0.93367346938775519</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="E33" s="30">
+        <f>D33-D31</f>
+        <v>-2.1459999999999999</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="30">
+        <v>-6.94</v>
+      </c>
+      <c r="H33" s="30">
+        <f>G33-G31</f>
+        <v>0.61999999999999922</v>
+      </c>
+      <c r="I33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="30">
+        <v>1.29</v>
+      </c>
+      <c r="K33" s="30">
+        <f>J33-J31</f>
+        <v>-0.45900000000000007</v>
+      </c>
+      <c r="L33" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="N33" s="30">
+        <f>M33-M31</f>
+        <v>-0.31500000000000039</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="I34" s="30"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>67</v>
+      </c>
+      <c r="E39">
+        <v>168</v>
+      </c>
+      <c r="F39" s="4">
+        <f>D39/E39</f>
+        <v>0.39880952380952384</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>167</v>
+      </c>
+      <c r="F40" s="4">
+        <f>D40/E40</f>
+        <v>0.24550898203592814</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>168</v>
+      </c>
+      <c r="F41" s="4">
+        <f>D41/E41</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C49" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C52" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C54" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C56" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C57" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24">
-        <v>5.5819999999999999</v>
-      </c>
-      <c r="G24" s="32">
-        <v>-7.56</v>
-      </c>
-      <c r="J24">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="M24">
-        <v>4.883</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="32">
-        <v>3.65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="32">
-        <v>-6.702</v>
-      </c>
-      <c r="H25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="K25" t="s">
-        <v>182</v>
-      </c>
-      <c r="M25">
-        <v>4.6340000000000003</v>
-      </c>
-      <c r="N25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26">
-        <v>3.4359999999999999</v>
-      </c>
-      <c r="E26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="32">
-        <v>-6.94</v>
-      </c>
-      <c r="H26" t="s">
-        <v>181</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32">
-        <v>1.29</v>
-      </c>
-      <c r="K26" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="32"/>
-      <c r="M26">
-        <v>4.5679999999999996</v>
-      </c>
-      <c r="N26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="I27" s="32"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32">
-        <v>67</v>
-      </c>
-      <c r="E32">
-        <v>168</v>
-      </c>
-      <c r="F32" s="4">
-        <f>D32/E32</f>
-        <v>0.39880952380952384</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33">
-        <v>41</v>
-      </c>
-      <c r="E33">
-        <v>167</v>
-      </c>
-      <c r="F33" s="4">
-        <f>D33/E33</f>
-        <v>0.24550898203592814</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>168</v>
-      </c>
-      <c r="F34" s="4">
-        <f>D34/E34</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C40" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C41" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C44" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D47">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D60">
         <v>2025</v>
       </c>
-      <c r="E47">
-        <f>D47+1</f>
+      <c r="E60">
+        <f>D60+1</f>
         <v>2026</v>
       </c>
-      <c r="F47">
-        <f t="shared" ref="F47:U47" si="0">E47+1</f>
+      <c r="F60">
+        <f t="shared" ref="F60:U60" si="0">E60+1</f>
         <v>2027</v>
       </c>
-      <c r="G47">
+      <c r="G60">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H47">
+      <c r="H60">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I47">
+      <c r="I60">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J47">
+      <c r="J60">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K47">
+      <c r="K60">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L47">
+      <c r="L60">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M47">
+      <c r="M60">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N47">
+      <c r="N60">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="O47">
+      <c r="O60">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="P47">
+      <c r="P60">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="Q47">
+      <c r="Q60">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="R47">
+      <c r="R60">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="S47">
+      <c r="S60">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="T47">
+      <c r="T60">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="U47">
+      <c r="U60">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E48" s="2">
-        <f>D48*1.05</f>
-        <v>2100</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" ref="F48:U48" si="1">E48*1.05</f>
-        <v>2205</v>
-      </c>
-      <c r="G48" s="2">
+      <c r="D61" s="2">
+        <f>42000000/1000000</f>
+        <v>42</v>
+      </c>
+      <c r="E61" s="2">
+        <f>D61*1.03</f>
+        <v>43.26</v>
+      </c>
+      <c r="F61" s="2">
+        <f>E61*1.03</f>
+        <v>44.5578</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" ref="G61:U61" si="1">F61*1.03</f>
+        <v>45.894534</v>
+      </c>
+      <c r="H61" s="2">
         <f t="shared" si="1"/>
-        <v>2315.25</v>
-      </c>
-      <c r="H48" s="2">
+        <v>47.271370019999999</v>
+      </c>
+      <c r="I61" s="2">
         <f t="shared" si="1"/>
-        <v>2431.0125000000003</v>
-      </c>
-      <c r="I48" s="2">
+        <v>48.689511120600002</v>
+      </c>
+      <c r="J61" s="2">
         <f t="shared" si="1"/>
-        <v>2552.5631250000006</v>
-      </c>
-      <c r="J48" s="2">
+        <v>50.150196454218005</v>
+      </c>
+      <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>2680.1912812500009</v>
-      </c>
-      <c r="K48" s="2">
+        <v>51.654702347844548</v>
+      </c>
+      <c r="L61" s="2">
         <f t="shared" si="1"/>
-        <v>2814.2008453125009</v>
-      </c>
-      <c r="L48" s="2">
+        <v>53.204343418279883</v>
+      </c>
+      <c r="M61" s="2">
         <f t="shared" si="1"/>
-        <v>2954.9108875781262</v>
-      </c>
-      <c r="M48" s="2">
+        <v>54.800473720828279</v>
+      </c>
+      <c r="N61" s="2">
         <f t="shared" si="1"/>
-        <v>3102.6564319570325</v>
-      </c>
-      <c r="N48" s="2">
+        <v>56.444487932453129</v>
+      </c>
+      <c r="O61" s="2">
         <f t="shared" si="1"/>
-        <v>3257.7892535548845</v>
-      </c>
-      <c r="O48" s="2">
+        <v>58.137822570426721</v>
+      </c>
+      <c r="P61" s="2">
         <f t="shared" si="1"/>
-        <v>3420.6787162326286</v>
-      </c>
-      <c r="P48" s="2">
+        <v>59.881957247539525</v>
+      </c>
+      <c r="Q61" s="2">
         <f t="shared" si="1"/>
-        <v>3591.7126520442603</v>
-      </c>
-      <c r="Q48" s="2">
+        <v>61.678415964965716</v>
+      </c>
+      <c r="R61" s="2">
         <f t="shared" si="1"/>
-        <v>3771.2982846464733</v>
-      </c>
-      <c r="R48" s="2">
+        <v>63.528768443914686</v>
+      </c>
+      <c r="S61" s="2">
         <f t="shared" si="1"/>
-        <v>3959.863198878797</v>
-      </c>
-      <c r="S48" s="2">
+        <v>65.434631497232132</v>
+      </c>
+      <c r="T61" s="2">
         <f t="shared" si="1"/>
-        <v>4157.8563588227371</v>
-      </c>
-      <c r="T48" s="2">
+        <v>67.397670442149092</v>
+      </c>
+      <c r="U61" s="2">
         <f t="shared" si="1"/>
-        <v>4365.7491767638739</v>
-      </c>
-      <c r="U48" s="2">
-        <f t="shared" si="1"/>
-        <v>4584.0366356020677</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+        <v>69.419600555413567</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="2">
-        <f>D48</f>
-        <v>2000</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" ref="E49:U49" si="2">E48</f>
-        <v>2100</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="D62" s="2">
+        <f>D61</f>
+        <v>42</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" ref="E62:U62" si="2">E61</f>
+        <v>43.26</v>
+      </c>
+      <c r="F62" s="2">
         <f t="shared" si="2"/>
-        <v>2205</v>
-      </c>
-      <c r="G49" s="2">
+        <v>44.5578</v>
+      </c>
+      <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>2315.25</v>
-      </c>
-      <c r="H49" s="2">
+        <v>45.894534</v>
+      </c>
+      <c r="H62" s="2">
         <f t="shared" si="2"/>
-        <v>2431.0125000000003</v>
-      </c>
-      <c r="I49" s="2">
+        <v>47.271370019999999</v>
+      </c>
+      <c r="I62" s="2">
         <f t="shared" si="2"/>
-        <v>2552.5631250000006</v>
-      </c>
-      <c r="J49" s="2">
+        <v>48.689511120600002</v>
+      </c>
+      <c r="J62" s="2">
         <f t="shared" si="2"/>
-        <v>2680.1912812500009</v>
-      </c>
-      <c r="K49" s="2">
+        <v>50.150196454218005</v>
+      </c>
+      <c r="K62" s="2">
         <f t="shared" si="2"/>
-        <v>2814.2008453125009</v>
-      </c>
-      <c r="L49" s="2">
+        <v>51.654702347844548</v>
+      </c>
+      <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>2954.9108875781262</v>
-      </c>
-      <c r="M49" s="2">
+        <v>53.204343418279883</v>
+      </c>
+      <c r="M62" s="2">
         <f t="shared" si="2"/>
-        <v>3102.6564319570325</v>
-      </c>
-      <c r="N49" s="2">
+        <v>54.800473720828279</v>
+      </c>
+      <c r="N62" s="2">
         <f t="shared" si="2"/>
-        <v>3257.7892535548845</v>
-      </c>
-      <c r="O49" s="2">
+        <v>56.444487932453129</v>
+      </c>
+      <c r="O62" s="2">
         <f t="shared" si="2"/>
-        <v>3420.6787162326286</v>
-      </c>
-      <c r="P49" s="2">
+        <v>58.137822570426721</v>
+      </c>
+      <c r="P62" s="2">
         <f t="shared" si="2"/>
-        <v>3591.7126520442603</v>
-      </c>
-      <c r="Q49" s="2">
+        <v>59.881957247539525</v>
+      </c>
+      <c r="Q62" s="2">
         <f t="shared" si="2"/>
-        <v>3771.2982846464733</v>
-      </c>
-      <c r="R49" s="2">
+        <v>61.678415964965716</v>
+      </c>
+      <c r="R62" s="2">
         <f t="shared" si="2"/>
-        <v>3959.863198878797</v>
-      </c>
-      <c r="S49" s="2">
+        <v>63.528768443914686</v>
+      </c>
+      <c r="S62" s="2">
         <f t="shared" si="2"/>
-        <v>4157.8563588227371</v>
-      </c>
-      <c r="T49" s="2">
+        <v>65.434631497232132</v>
+      </c>
+      <c r="T62" s="2">
         <f t="shared" si="2"/>
-        <v>4365.7491767638739</v>
-      </c>
-      <c r="U49" s="2">
+        <v>67.397670442149092</v>
+      </c>
+      <c r="U62" s="2">
         <f t="shared" si="2"/>
-        <v>4584.0366356020677</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+        <v>69.419600555413567</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="2">
-        <v>32</v>
-      </c>
-      <c r="E50" s="2">
-        <v>32</v>
-      </c>
-      <c r="F50" s="2">
-        <v>32</v>
-      </c>
-      <c r="G50" s="2">
-        <v>32</v>
-      </c>
-      <c r="H50" s="2">
-        <v>32</v>
-      </c>
-      <c r="I50" s="2">
-        <v>32</v>
-      </c>
-      <c r="J50" s="2">
-        <v>32</v>
-      </c>
-      <c r="K50" s="2">
-        <v>32</v>
-      </c>
-      <c r="L50" s="2">
-        <v>32</v>
-      </c>
-      <c r="M50" s="2">
-        <v>32</v>
-      </c>
-      <c r="N50" s="2">
-        <v>32</v>
-      </c>
-      <c r="O50" s="2">
-        <v>32</v>
-      </c>
-      <c r="P50" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>32</v>
-      </c>
-      <c r="R50" s="2">
-        <v>32</v>
-      </c>
-      <c r="S50" s="2">
-        <v>32</v>
-      </c>
-      <c r="T50" s="2">
-        <v>32</v>
-      </c>
-      <c r="U50" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+      <c r="D63" s="2">
         <v>8</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E63" s="2">
+        <v>8</v>
+      </c>
+      <c r="F63" s="2">
+        <v>8</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8</v>
+      </c>
+      <c r="H63" s="2">
+        <v>8</v>
+      </c>
+      <c r="I63" s="2">
+        <v>8</v>
+      </c>
+      <c r="J63" s="2">
+        <v>8</v>
+      </c>
+      <c r="K63" s="2">
+        <v>8</v>
+      </c>
+      <c r="L63" s="2">
+        <v>8</v>
+      </c>
+      <c r="M63" s="2">
+        <v>8</v>
+      </c>
+      <c r="N63" s="2">
+        <v>8</v>
+      </c>
+      <c r="O63" s="2">
+        <v>8</v>
+      </c>
+      <c r="P63" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>8</v>
+      </c>
+      <c r="R63" s="2">
+        <v>8</v>
+      </c>
+      <c r="S63" s="2">
+        <v>8</v>
+      </c>
+      <c r="T63" s="2">
+        <v>8</v>
+      </c>
+      <c r="U63" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
-        <f t="shared" ref="E51:U51" si="3">E50*E49</f>
-        <v>67200</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E64" s="2">
+        <f t="shared" ref="E64:U64" si="3">E63*E62</f>
+        <v>346.08</v>
+      </c>
+      <c r="F64" s="2">
         <f t="shared" si="3"/>
-        <v>70560</v>
-      </c>
-      <c r="G51" s="2">
+        <v>356.4624</v>
+      </c>
+      <c r="G64" s="2">
         <f t="shared" si="3"/>
-        <v>74088</v>
-      </c>
-      <c r="H51" s="2">
+        <v>367.156272</v>
+      </c>
+      <c r="H64" s="2">
         <f t="shared" si="3"/>
-        <v>77792.400000000009</v>
-      </c>
-      <c r="I51" s="2">
+        <v>378.17096015999999</v>
+      </c>
+      <c r="I64" s="2">
         <f t="shared" si="3"/>
-        <v>81682.020000000019</v>
-      </c>
-      <c r="J51" s="2">
+        <v>389.51608896480002</v>
+      </c>
+      <c r="J64" s="2">
         <f t="shared" si="3"/>
-        <v>85766.121000000028</v>
-      </c>
-      <c r="K51" s="2">
+        <v>401.20157163374404</v>
+      </c>
+      <c r="K64" s="2">
         <f t="shared" si="3"/>
-        <v>90054.427050000028</v>
-      </c>
-      <c r="L51" s="2">
+        <v>413.23761878275639</v>
+      </c>
+      <c r="L64" s="2">
         <f t="shared" si="3"/>
-        <v>94557.148402500039</v>
-      </c>
-      <c r="M51" s="2">
+        <v>425.63474734623907</v>
+      </c>
+      <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>99285.00582262504</v>
-      </c>
-      <c r="N51" s="2">
+        <v>438.40378976662623</v>
+      </c>
+      <c r="N64" s="2">
         <f t="shared" si="3"/>
-        <v>104249.2561137563</v>
-      </c>
-      <c r="O51" s="2">
+        <v>451.55590345962503</v>
+      </c>
+      <c r="O64" s="2">
         <f t="shared" si="3"/>
-        <v>109461.71891944412</v>
-      </c>
-      <c r="P51" s="2">
+        <v>465.10258056341377</v>
+      </c>
+      <c r="P64" s="2">
         <f t="shared" si="3"/>
-        <v>114934.80486541633</v>
-      </c>
-      <c r="Q51" s="2">
+        <v>479.0556579803162</v>
+      </c>
+      <c r="Q64" s="2">
         <f t="shared" si="3"/>
-        <v>120681.54510868715</v>
-      </c>
-      <c r="R51" s="2">
+        <v>493.42732771972572</v>
+      </c>
+      <c r="R64" s="2">
         <f t="shared" si="3"/>
-        <v>126715.6223641215</v>
-      </c>
-      <c r="S51" s="2">
+        <v>508.23014755131749</v>
+      </c>
+      <c r="S64" s="2">
         <f t="shared" si="3"/>
-        <v>133051.40348232759</v>
-      </c>
-      <c r="T51" s="2">
+        <v>523.47705197785706</v>
+      </c>
+      <c r="T64" s="2">
         <f t="shared" si="3"/>
-        <v>139703.97365644397</v>
-      </c>
-      <c r="U51" s="2">
+        <v>539.18136353719274</v>
+      </c>
+      <c r="U64" s="2">
         <f t="shared" si="3"/>
-        <v>146689.17233926617</v>
-      </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+        <v>555.35680444330853</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D66" s="4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="2">
-        <f>NPV(D53,D51:U51)/1000</f>
-        <v>789.26527048301978</v>
-      </c>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
+      <c r="D67" s="2">
+        <f>NPV(D66,D64:U64)</f>
+        <v>3545.9523657148516</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C69" s="21"/>
+    </row>
+    <row r="94" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E94" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K94" s="22" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C62" s="22"/>
-    </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E87" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G87" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I87" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K87" s="23" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{507DDEA7-932D-4872-8D48-17F26FD11820}"/>
-    <hyperlink ref="B57" r:id="rId1" xr:uid="{742903D1-1F8C-41C6-B35C-3394E968EAAA}"/>
-    <hyperlink ref="C40" r:id="rId2" xr:uid="{761CC2DD-41E1-442C-BEBB-9C601648719D}"/>
-    <hyperlink ref="B59" r:id="rId3" xr:uid="{26A4184F-9010-4D5B-A394-0E08A6A96BFE}"/>
-    <hyperlink ref="B58" r:id="rId4" xr:uid="{0192896A-414F-41D2-A543-236A79B30313}"/>
+    <hyperlink ref="C56" r:id="rId1" xr:uid="{3F8A4554-BCCD-4C36-8BF7-0A962B659A3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11E7C0-A819-4B90-9147-611A69F54962}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4889,39 +7063,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="26">
+        <v>93</v>
+      </c>
+      <c r="C4" s="25">
         <v>43458</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="26">
+        <v>94</v>
+      </c>
+      <c r="C5" s="25">
         <v>43649</v>
       </c>
     </row>
@@ -4929,112 +7103,109 @@
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>109</v>
+      <c r="C6" s="23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="24" t="s">
-        <v>111</v>
+      <c r="C8" s="23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="24" t="s">
-        <v>112</v>
+      <c r="C9" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="24" t="s">
-        <v>113</v>
+      <c r="C10" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="24" t="s">
-        <v>85</v>
+      <c r="C13" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="24" t="s">
-        <v>64</v>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="24" t="s">
-        <v>120</v>
+      <c r="C16" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="24" t="s">
-        <v>122</v>
+      <c r="C18" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="24" t="s">
-        <v>128</v>
+      <c r="C20" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="24" t="s">
-        <v>127</v>
+      <c r="C21" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>116</v>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5045,12 +7216,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC17A629-C70F-4C12-A535-8EEC4DFE5F0F}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5061,128 +7232,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="26">
+        <v>93</v>
+      </c>
+      <c r="C4" s="25">
         <v>43811</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>192</v>
+        <v>94</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>109</v>
+      <c r="C6" s="23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="24" t="s">
-        <v>194</v>
+      <c r="C8" s="23" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>193</v>
+        <v>110</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>195</v>
+        <v>97</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>196</v>
+        <v>98</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="24" t="s">
-        <v>197</v>
+      <c r="C13" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>198</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5192,12 +7363,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06430607-0784-43C7-B856-99EB5636C523}">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A231" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5206,138 +7377,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="17" t="s">
-        <v>132</v>
+      <c r="B63" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="17" t="s">
-        <v>95</v>
+      <c r="B67" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L94" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L95" t="s">
+        <v>197</v>
+      </c>
+      <c r="M95" t="s">
+        <v>202</v>
+      </c>
+      <c r="N95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O95" t="s">
+        <v>202</v>
+      </c>
+      <c r="P95" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J96" t="s">
+        <v>203</v>
+      </c>
+      <c r="K96" t="s">
+        <v>61</v>
+      </c>
+      <c r="L96">
+        <v>29.18</v>
+      </c>
+      <c r="M96">
+        <v>0.61</v>
+      </c>
+      <c r="N96">
+        <v>33.26</v>
+      </c>
+      <c r="O96">
+        <v>0.98</v>
+      </c>
+      <c r="P96" s="22">
+        <f>N96-L96</f>
+        <v>4.0799999999999983</v>
+      </c>
+    </row>
+    <row r="97" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J97" t="s">
+        <v>204</v>
+      </c>
+      <c r="K97" t="s">
+        <v>49</v>
+      </c>
+      <c r="L97">
+        <v>27.62</v>
+      </c>
+      <c r="M97">
+        <v>0.5</v>
+      </c>
+      <c r="N97">
+        <v>30.36</v>
+      </c>
+      <c r="O97">
+        <v>0.83</v>
+      </c>
+      <c r="P97" s="22">
+        <f>N97-L97</f>
+        <v>2.7399999999999984</v>
+      </c>
+      <c r="Q97" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="P98" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>205</v>
+      </c>
+      <c r="P99">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>201</v>
+      </c>
+      <c r="R100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J101" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="17" t="s">
-        <v>147</v>
+      <c r="B189" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B259" s="34" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5350,8 +7683,9 @@
     <hyperlink ref="B189" r:id="rId5" xr:uid="{21447383-8AFE-43A5-BA6C-23895D981C82}"/>
     <hyperlink ref="B63" r:id="rId6" xr:uid="{5F30CA00-9B2C-49C1-B973-CB142652194C}"/>
     <hyperlink ref="B67" r:id="rId7" xr:uid="{56F2460C-89E4-4FB2-8811-5C224B2E411A}"/>
+    <hyperlink ref="B229" r:id="rId8" xr:uid="{08711C54-FA17-4C78-939A-12EA28AE202F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98316C01-6FA6-40BC-9FF6-1353AA20BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372CD10E-1FC1-4F67-8B4F-73DD8804A6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="0" windowWidth="14550" windowHeight="15585" firstSheet="1" activeTab="5" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="1770" yWindow="1530" windowWidth="23595" windowHeight="13935" activeTab="4" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="306">
   <si>
     <t>Price</t>
   </si>
@@ -865,9 +865,6 @@
     <t>17: Singh J, Fiori F, Law ML, Ahmed R, Ameenpur S, Basheer S, Chishti S, Lawrence R, Mastroianni M, Mosaddegh A, Santosh P. Development and Psychometric Properties of the Multi-System Profile of Symptoms Scale in Patients with Rett Syndrome. J Clin Med. 2022 Aug 30;11(17):5094. doi: 10.3390/jcm11175094. PMID: 36079020; PMCID: PMC9457440.</t>
   </si>
   <si>
-    <t>16: Malar DS, Thitilertdecha P, Ruckvongacheep KS, Brimson S, Tencomnao T, Brimson JM. Targeting Sigma Receptors for the Treatment of Neurodegenerative and Neurodevelopmental Disorders. CNS Drugs. 2023 May;37(5):399-440. doi: 10.1007/s40263-023-01007-6. Epub 2023 May 11. PMID: 37166702; PMCID: PMC10173947.</t>
-  </si>
-  <si>
     <t>15: Singh J, Goodman-Vincent E, Santosh P. Evidence Synthesis of Gene Therapy and Gene Editing from Different Disorders-Implications for Individuals with Rett Syndrome: A Systematic Review. Int J Mol Sci. 2023 May 19;24(10):9023. doi: 10.3390/ijms24109023. PMID: 37240368; PMCID: PMC10219055.</t>
   </si>
   <si>
@@ -883,9 +880,6 @@
     <t>10: Mercer RCC, Le NTT, Fraser DG, Houser MCQ, Beeler AB, Harris DA. Sigma Receptor Ligands Are Potent Antiprion Compounds that Act Independently of Sigma Receptor Binding. ACS Chem Neurosci. 2024 Jun 5;15(11):2265-2282. doi: 10.1021/acschemneuro.4c00095. Epub 2024 May 14. PMID: 38743607; PMCID: PMC12172621.</t>
   </si>
   <si>
-    <t>9: Chen W, Han L, Yang R, Wang H, Yao S, Deng H, Liu S, Zhou Y, Shen XL. Central role of Sigma-1 receptor in ochratoxin A-induced ferroptosis. Arch Toxicol. 2024 Oct;98(10):3323-3336. doi: 10.1007/s00204-024-03805-3. Epub 2024 Jun 19. PMID: 38896176</t>
-  </si>
-  <si>
     <t>8: Singh J, Wilkins G, Goodman-Vincent E, Chishti S, Bonilla Guerrero R, McFadden L, Zahavi Z, Santosh P. Co-Occurring Methylenetetrahydrofolate Reductase (&lt;i&gt;MTHFR&lt;/i&gt;) rs1801133 and rs1801131 Genotypes as Associative Genetic Modifiers of Clinical Severity in Rett Syndrome. Brain Sci. 2024 Jun 21;14(7):624. doi: 10.3390/brainsci14070624. PMID: 39061365; PMCID: PMC11275218.</t>
   </si>
   <si>
@@ -934,9 +928,6 @@
     <t>"A radioconjugate composed of the selective sigma-1 receptor (S1R) ligand"; "10.1038/s41598-021-94079-7" Ki 2.5x10^-3 nM sigma-1 receptor vs IC50 860nM for blarcamesine</t>
   </si>
   <si>
-    <t>SIGMA-1 agonist, Ki 860nM? as per Reyes ST et al. 2021</t>
-  </si>
-  <si>
     <t>Search terms=ANAVEX2-73, blarcamesine</t>
   </si>
   <si>
@@ -964,7 +955,31 @@
     <t>Nevada?</t>
   </si>
   <si>
-    <t>Failed in AD agitation, Stroke, PD, MDD,; Neuropathic Pain, AD not conclusive</t>
+    <t>pridopidine</t>
+  </si>
+  <si>
+    <t>rejected for Huntington's</t>
+  </si>
+  <si>
+    <t>Failed in AD agitation, Stroke, PD, MDD, Huntington's; Neuropathic Pain, AD not conclusive</t>
+  </si>
+  <si>
+    <t>Huntington's Disease</t>
+  </si>
+  <si>
+    <t>10.1007/164_2017_35</t>
+  </si>
+  <si>
+    <t>&lt;--- sigmar1 autophagy? Only modifies ion channels</t>
+  </si>
+  <si>
+    <t>"It directly modulates the biophysical properties of channels (Aydar et al. 2002; Kinoshita et al. 2012; Zhang et al. 2009), contributes to trafficking and surface distribution of channels (Balasuriya et al. 2014; Crottes et al. 2011; Kinoshita et al. 2012; Kourrich et al. 2013), regulates ion currents in ligand-dependent and independent manner (Aydar et al. 2002; Kinoshita et al. 2012), binds drugs directly (Hayashi et al. 2011; Kourrich et al. 2012), and directly interacts with the pore-forming subunit (Balasuriya et al. 2012, 2013, 2014)."</t>
+  </si>
+  <si>
+    <t>how does this affect autophagy?</t>
+  </si>
+  <si>
+    <t>SIGMA-1 agonist, Ki ?</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1213,7 +1228,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4086,7 +4100,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4295,7 +4309,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -5470,10 +5484,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2143176-ED9F-48BB-829E-6310A8502A04}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5492,99 +5507,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
-      <c r="B2" s="40" t="s">
-        <v>296</v>
+      <c r="B2" t="s">
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5645,47 +5648,67 @@
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{127D6958-AF59-49AD-8259-248DF02AA6BA}"/>
+    <hyperlink ref="E39" r:id="rId1" display="https://doi.org/10.1007/164_2017_35" xr:uid="{C037F054-7107-4C63-B468-84470688DC8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5711,18 +5734,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5962,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407ADA6D-3660-4286-832E-E0AFABF67ECE}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6087,77 +6110,88 @@
         <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="26"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
+      <c r="C12" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-    </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{908679FD-F137-4CE4-B11B-ED5832B74FC8}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{E3455CA4-1BB2-48FF-A8BE-EE6BC790D76D}"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{908679FD-F137-4CE4-B11B-ED5832B74FC8}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{E3455CA4-1BB2-48FF-A8BE-EE6BC790D76D}"/>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BFB01A54-03EB-45AD-B81A-4B9884E950F3}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{537C62E8-A33B-452F-B341-B20D35812B70}"/>
-    <hyperlink ref="B15" r:id="rId4" xr:uid="{A75EFDBD-BD0A-4B0D-8FDD-7EEB593AC22D}"/>
-    <hyperlink ref="B18" r:id="rId5" xr:uid="{93C25C51-39B9-4C01-8868-36CDAA6666FE}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{537C62E8-A33B-452F-B341-B20D35812B70}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{A75EFDBD-BD0A-4B0D-8FDD-7EEB593AC22D}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{93C25C51-39B9-4C01-8868-36CDAA6666FE}"/>
     <hyperlink ref="F9" r:id="rId6" xr:uid="{774CDFC4-8ABC-4DC8-BFB9-15E69DD27F20}"/>
     <hyperlink ref="F7" r:id="rId7" xr:uid="{A15B22D9-F4B3-489C-8E8A-F310CE667BC2}"/>
     <hyperlink ref="F6" r:id="rId8" xr:uid="{2B91592D-BEAD-42D0-85CC-8520953ED12A}"/>
@@ -6172,8 +6206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA50582-DC4D-4F23-97CC-A8C90BE99A2E}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6184,12 +6218,12 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>47</v>
       </c>
@@ -6197,7 +6231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -6205,7 +6239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -6213,20 +6247,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>246</v>
       </c>
@@ -6234,15 +6268,21 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -6250,27 +6290,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>65</v>
       </c>
@@ -6335,7 +6375,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D27">
         <v>30.4</v>
@@ -6346,7 +6386,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28">
         <v>28.4</v>
@@ -6357,7 +6397,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D29">
         <v>28.9</v>
@@ -6374,11 +6414,11 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D31">
         <v>5.5819999999999999</v>
@@ -6395,7 +6435,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" s="1">
         <f>(-0.228--3.639)/(2*1.96)</f>
@@ -6447,7 +6487,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B33" s="1">
         <f>(-0.319--3.979)/(2*1.96)</f>
@@ -7052,7 +7092,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372CD10E-1FC1-4F67-8B4F-73DD8804A6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5102212-A590-4650-87DB-8F7723FEADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1530" windowWidth="23595" windowHeight="13935" activeTab="4" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="3120" yWindow="2265" windowWidth="22935" windowHeight="13935" activeTab="5" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5987,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407ADA6D-3660-4286-832E-E0AFABF67ECE}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6206,8 +6206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA50582-DC4D-4F23-97CC-A8C90BE99A2E}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5102212-A590-4650-87DB-8F7723FEADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29025A5B-C02C-4500-BF58-02153C4CA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2265" windowWidth="22935" windowHeight="13935" activeTab="5" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="7455" yWindow="1365" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="308">
   <si>
     <t>Price</t>
   </si>
@@ -980,6 +980,12 @@
   </si>
   <si>
     <t>SIGMA-1 agonist, Ki ?</t>
+  </si>
+  <si>
+    <t>NPV if fail</t>
+  </si>
+  <si>
+    <t>assume 20m cash burn by failure</t>
   </si>
 </sst>
 </file>
@@ -4100,7 +4106,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4285,6 +4291,10 @@
         <f>K5/K3</f>
         <v>1.3560769338893315</v>
       </c>
+      <c r="L8" s="4">
+        <f>K8/$K$2-1</f>
+        <v>-0.89880022881422894</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -4297,7 +4307,10 @@
       <c r="K9" s="1">
         <v>3.71</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="4">
+        <f>K9/$K$2-1</f>
+        <v>-0.72313432835820901</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -4306,6 +4319,16 @@
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="38"/>
+      <c r="J11" t="s">
+        <v>306</v>
+      </c>
+      <c r="K11" s="2">
+        <f>K5-20</f>
+        <v>95.771000000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -4337,11 +4360,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007765E8-C51A-4FC3-91B6-B2B23450DFD5}">
   <dimension ref="A1:DE27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4643,7 +4666,7 @@
         <v>23</v>
       </c>
       <c r="R8" s="4">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:109" x14ac:dyDescent="0.2">
@@ -4703,7 +4726,7 @@
       </c>
       <c r="R9" s="2">
         <f>NPV(R8,L13:XFD13)+Main!K5-Main!K6+blarcamesine!D67</f>
-        <v>3562.0285628719562</v>
+        <v>3572.2606321050571</v>
       </c>
     </row>
     <row r="10" spans="1:109" x14ac:dyDescent="0.2">
@@ -4747,7 +4770,7 @@
       </c>
       <c r="R10" s="1">
         <f>R9/Main!K3</f>
-        <v>41.723616207561683</v>
+        <v>41.843468960608362</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>208</v>
@@ -4807,7 +4830,7 @@
       </c>
       <c r="R11" s="4">
         <f>R10/Main!K2-1</f>
-        <v>2.113702702056842</v>
+        <v>2.1226469373588328</v>
       </c>
     </row>
     <row r="12" spans="1:109" x14ac:dyDescent="0.2">
@@ -6206,7 +6229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA50582-DC4D-4F23-97CC-A8C90BE99A2E}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>

--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29025A5B-C02C-4500-BF58-02153C4CA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E2F953-04E9-45A5-B247-A0E571462186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1365" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E2F953-04E9-45A5-B247-A0E571462186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE37BC9-351F-43ED-8225-D23DE85BF809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
+    <workbookView xWindow="1560" yWindow="1395" windowWidth="23835" windowHeight="14805" activeTab="5" xr2:uid="{1D94FDB0-2145-47F5-95A2-96B69B0B8E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="305">
   <si>
     <t>Price</t>
   </si>
@@ -652,9 +652,6 @@
     <t>"5 months until database lock even cassava didn’t need that"</t>
   </si>
   <si>
-    <t>if 300m shares issued</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -980,12 +977,6 @@
   </si>
   <si>
     <t>SIGMA-1 agonist, Ki ?</t>
-  </si>
-  <si>
-    <t>NPV if fail</t>
-  </si>
-  <si>
-    <t>assume 20m cash burn by failure</t>
   </si>
 </sst>
 </file>
@@ -4106,7 +4097,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4188,7 +4179,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -4213,7 +4204,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -4259,16 +4250,16 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="F7" s="18">
         <v>1</v>
@@ -4301,38 +4292,20 @@
         <v>113</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="J9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3.71</v>
-      </c>
-      <c r="L9" s="4">
-        <f>K9/$K$2-1</f>
-        <v>-0.72313432835820901</v>
-      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="38"/>
-      <c r="J11" t="s">
-        <v>306</v>
-      </c>
-      <c r="K11" s="2">
-        <f>K5-20</f>
-        <v>95.771000000000001</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4360,7 +4333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007765E8-C51A-4FC3-91B6-B2B23450DFD5}">
   <dimension ref="A1:DE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4383,19 +4356,19 @@
     </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="I2" s="3">
         <v>2023</v>
@@ -4726,7 +4699,7 @@
       </c>
       <c r="R9" s="2">
         <f>NPV(R8,L13:XFD13)+Main!K5-Main!K6+blarcamesine!D67</f>
-        <v>3572.2606321050571</v>
+        <v>3078.3903818218841</v>
       </c>
     </row>
     <row r="10" spans="1:109" x14ac:dyDescent="0.2">
@@ -4770,10 +4743,10 @@
       </c>
       <c r="R10" s="1">
         <f>R9/Main!K3</f>
-        <v>41.843468960608362</v>
+        <v>36.058548257296117</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:109" x14ac:dyDescent="0.2">
@@ -4830,7 +4803,7 @@
       </c>
       <c r="R11" s="4">
         <f>R10/Main!K2-1</f>
-        <v>2.1226469373588328</v>
+        <v>1.6909364371116506</v>
       </c>
     </row>
     <row r="12" spans="1:109" x14ac:dyDescent="0.2">
@@ -5379,7 +5352,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2">
         <v>2.4500000000000002</v>
@@ -5390,7 +5363,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2">
         <v>0.93</v>
@@ -5401,7 +5374,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2">
         <f>SUM(C18:C20)</f>
@@ -5426,7 +5399,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2">
         <v>9.6</v>
@@ -5437,7 +5410,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2">
         <v>4.8</v>
@@ -5448,7 +5421,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2">
         <v>0.84</v>
@@ -5473,7 +5446,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(C23:C26)</f>
@@ -5531,177 +5504,177 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
         <v>293</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>294</v>
       </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
@@ -5712,20 +5685,20 @@
         <v>67</v>
       </c>
       <c r="E39" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" t="s">
         <v>301</v>
-      </c>
-      <c r="G39" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5757,18 +5730,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6133,20 +6106,20 @@
         <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F10" s="26"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
         <v>297</v>
-      </c>
-      <c r="C11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6154,7 +6127,7 @@
         <v>163</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6229,8 +6202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA50582-DC4D-4F23-97CC-A8C90BE99A2E}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6259,7 +6232,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -6275,20 +6248,20 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -6398,7 +6371,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D27">
         <v>30.4</v>
@@ -6409,7 +6382,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28">
         <v>28.4</v>
@@ -6420,7 +6393,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29">
         <v>28.9</v>
@@ -6437,11 +6410,11 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31">
         <v>5.5819999999999999</v>
@@ -6458,7 +6431,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="1">
         <f>(-0.228--3.639)/(2*1.96)</f>
@@ -6510,7 +6483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="1">
         <f>(-0.319--3.979)/(2*1.96)</f>
@@ -6660,12 +6633,12 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="3:21" x14ac:dyDescent="0.2">
@@ -6680,7 +6653,7 @@
     </row>
     <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="3:21" x14ac:dyDescent="0.2">
@@ -6688,7 +6661,7 @@
     </row>
     <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="3:21" x14ac:dyDescent="0.2">
@@ -6696,7 +6669,7 @@
     </row>
     <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.2">
@@ -6786,72 +6759,72 @@
         <v>42</v>
       </c>
       <c r="E61" s="2">
-        <f>D61*1.03</f>
-        <v>43.26</v>
+        <f>D61*1.01</f>
+        <v>42.42</v>
       </c>
       <c r="F61" s="2">
-        <f>E61*1.03</f>
-        <v>44.5578</v>
+        <f t="shared" ref="F61:U61" si="1">E61*1.01</f>
+        <v>42.844200000000001</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" ref="G61:U61" si="1">F61*1.03</f>
-        <v>45.894534</v>
+        <f t="shared" si="1"/>
+        <v>43.272641999999998</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="1"/>
-        <v>47.271370019999999</v>
+        <v>43.705368419999999</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="1"/>
-        <v>48.689511120600002</v>
+        <v>44.142422104200001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="1"/>
-        <v>50.150196454218005</v>
+        <v>44.583846325242</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>51.654702347844548</v>
+        <v>45.029684788494421</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="1"/>
-        <v>53.204343418279883</v>
+        <v>45.479981636379364</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="1"/>
-        <v>54.800473720828279</v>
+        <v>45.934781452743159</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="1"/>
-        <v>56.444487932453129</v>
+        <v>46.394129267270593</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="1"/>
-        <v>58.137822570426721</v>
+        <v>46.8580705599433</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="1"/>
-        <v>59.881957247539525</v>
+        <v>47.326651265542736</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="1"/>
-        <v>61.678415964965716</v>
+        <v>47.799917778198164</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="1"/>
-        <v>63.528768443914686</v>
+        <v>48.277916955980146</v>
       </c>
       <c r="S61" s="2">
         <f t="shared" si="1"/>
-        <v>65.434631497232132</v>
+        <v>48.760696125539951</v>
       </c>
       <c r="T61" s="2">
         <f t="shared" si="1"/>
-        <v>67.397670442149092</v>
+        <v>49.248303086795353</v>
       </c>
       <c r="U61" s="2">
         <f t="shared" si="1"/>
-        <v>69.419600555413567</v>
+        <v>49.740786117663305</v>
       </c>
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.2">
@@ -6864,71 +6837,71 @@
       </c>
       <c r="E62" s="2">
         <f t="shared" ref="E62:U62" si="2">E61</f>
-        <v>43.26</v>
+        <v>42.42</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="2"/>
-        <v>44.5578</v>
+        <v>42.844200000000001</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>45.894534</v>
+        <v>43.272641999999998</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="2"/>
-        <v>47.271370019999999</v>
+        <v>43.705368419999999</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="2"/>
-        <v>48.689511120600002</v>
+        <v>44.142422104200001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="2"/>
-        <v>50.150196454218005</v>
+        <v>44.583846325242</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="2"/>
-        <v>51.654702347844548</v>
+        <v>45.029684788494421</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>53.204343418279883</v>
+        <v>45.479981636379364</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="2"/>
-        <v>54.800473720828279</v>
+        <v>45.934781452743159</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="2"/>
-        <v>56.444487932453129</v>
+        <v>46.394129267270593</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="2"/>
-        <v>58.137822570426721</v>
+        <v>46.8580705599433</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="2"/>
-        <v>59.881957247539525</v>
+        <v>47.326651265542736</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="2"/>
-        <v>61.678415964965716</v>
+        <v>47.799917778198164</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="2"/>
-        <v>63.528768443914686</v>
+        <v>48.277916955980146</v>
       </c>
       <c r="S62" s="2">
         <f t="shared" si="2"/>
-        <v>65.434631497232132</v>
+        <v>48.760696125539951</v>
       </c>
       <c r="T62" s="2">
         <f t="shared" si="2"/>
-        <v>67.397670442149092</v>
+        <v>49.248303086795353</v>
       </c>
       <c r="U62" s="2">
         <f t="shared" si="2"/>
-        <v>69.419600555413567</v>
+        <v>49.740786117663305</v>
       </c>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.2">
@@ -6999,71 +6972,71 @@
       </c>
       <c r="E64" s="2">
         <f t="shared" ref="E64:U64" si="3">E63*E62</f>
-        <v>346.08</v>
+        <v>339.36</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="3"/>
-        <v>356.4624</v>
+        <v>342.75360000000001</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="3"/>
-        <v>367.156272</v>
+        <v>346.18113599999998</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="3"/>
-        <v>378.17096015999999</v>
+        <v>349.64294735999999</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" si="3"/>
-        <v>389.51608896480002</v>
+        <v>353.13937683360001</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="3"/>
-        <v>401.20157163374404</v>
+        <v>356.670770601936</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="3"/>
-        <v>413.23761878275639</v>
+        <v>360.23747830795537</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="3"/>
-        <v>425.63474734623907</v>
+        <v>363.83985309103491</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>438.40378976662623</v>
+        <v>367.47825162194528</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="3"/>
-        <v>451.55590345962503</v>
+        <v>371.15303413816474</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="3"/>
-        <v>465.10258056341377</v>
+        <v>374.8645644795464</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="3"/>
-        <v>479.0556579803162</v>
+        <v>378.61321012434189</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="3"/>
-        <v>493.42732771972572</v>
+        <v>382.39934222558531</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="3"/>
-        <v>508.23014755131749</v>
+        <v>386.22333564784117</v>
       </c>
       <c r="S64" s="2">
         <f t="shared" si="3"/>
-        <v>523.47705197785706</v>
+        <v>390.08556900431961</v>
       </c>
       <c r="T64" s="2">
         <f t="shared" si="3"/>
-        <v>539.18136353719274</v>
+        <v>393.98642469436282</v>
       </c>
       <c r="U64" s="2">
         <f t="shared" si="3"/>
-        <v>555.35680444330853</v>
+        <v>397.92628894130644</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.2">
@@ -7080,7 +7053,7 @@
       </c>
       <c r="D67" s="2">
         <f>NPV(D66,D64:U64)</f>
-        <v>3545.9523657148516</v>
+        <v>3052.0821154316786</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -7536,29 +7509,29 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="L94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="L95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N95" t="s">
         <v>90</v>
       </c>
       <c r="O95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P95" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K96" t="s">
         <v>61</v>
@@ -7582,7 +7555,7 @@
     </row>
     <row r="97" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K97" t="s">
         <v>49</v>
@@ -7604,17 +7577,17 @@
         <v>2.7399999999999984</v>
       </c>
       <c r="Q97" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="10:18" x14ac:dyDescent="0.2">
       <c r="P98" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P99">
         <v>4.1100000000000003</v>
@@ -7625,10 +7598,10 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="Q100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="10:18" x14ac:dyDescent="0.2">
@@ -7678,62 +7651,62 @@
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="259" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B259" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
